--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -12,14 +12,14 @@
     <sheet name="更新报告" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$55</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="113">
   <si>
     <t>Horizen</t>
   </si>
@@ -42,68 +42,402 @@
     <t>Vertcoin</t>
   </si>
   <si>
+    <t>Peercoin</t>
+  </si>
+  <si>
+    <t>SmartCash</t>
+  </si>
+  <si>
+    <t>Komodo</t>
+  </si>
+  <si>
+    <t>徐江</t>
+  </si>
+  <si>
+    <t>分析师</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Nxt</t>
+  </si>
+  <si>
+    <t>WAX</t>
+  </si>
+  <si>
+    <t>Dragonchain</t>
+  </si>
+  <si>
+    <t>QuarkChain</t>
+  </si>
+  <si>
+    <t>Ignis</t>
+  </si>
+  <si>
+    <t>Tokenomy</t>
+  </si>
+  <si>
+    <t>XAS</t>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByteballBytes</t>
+  </si>
+  <si>
+    <t>Polymath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scry.info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crypto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centrality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BridgeCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veritaseum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRYPTO20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigitalNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubiq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigitexFutures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenesisVision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zipper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eidoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRootNetwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eternal Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonaCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groestlcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NucleusVision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigixDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOTchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novacoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Reddcoin</t>
-  </si>
-  <si>
-    <t>Peercoin</t>
-  </si>
-  <si>
-    <t>SmartCash</t>
-  </si>
-  <si>
-    <t>Komodo</t>
-  </si>
-  <si>
-    <t>徐江</t>
-  </si>
-  <si>
-    <t>分析师</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Nxt</t>
-  </si>
-  <si>
-    <t>WAX</t>
-  </si>
-  <si>
-    <t>Dragonchain</t>
-  </si>
-  <si>
-    <t>QuarkChain</t>
-  </si>
-  <si>
-    <t>Ignis</t>
-  </si>
-  <si>
-    <t>Tokenomy</t>
-  </si>
-  <si>
-    <t>XAS</t>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张朕铭</t>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,316 +445,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ByteballBytes</t>
-  </si>
-  <si>
-    <t>Polymath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scry.info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emercoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crypto.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centrality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enigma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BridgeCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Veritaseum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pillar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRYPTO20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigitalNote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubiq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigitexFutures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenesisVision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zipper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dropil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iconomi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eidoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OneRootNetwork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>币名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eternal Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonaCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TokenPay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Groestlcoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NucleusVision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmartMesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigixDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOTchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,11 +860,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:O54"/>
+  <dimension ref="B1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -857,46 +882,46 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
@@ -911,15 +936,15 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -939,15 +964,15 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -967,15 +992,15 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -983,7 +1008,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -998,12 +1023,12 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1023,15 +1048,15 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1051,15 +1076,15 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1067,7 +1092,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -1075,19 +1100,19 @@
         <v>43392</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1103,19 +1128,23 @@
         <v>43392</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1129,19 +1158,19 @@
         <v>43392</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1157,19 +1186,19 @@
         <v>43392</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1185,26 +1214,26 @@
         <v>43392</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -1227,19 +1256,19 @@
         <v>43392</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1249,25 +1278,25 @@
     </row>
     <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="C14" s="4">
-        <v>43392</v>
+        <v>43401</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1283,25 +1312,39 @@
         <v>43401</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
@@ -1311,39 +1354,25 @@
         <v>43401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="1">
-        <v>6</v>
-      </c>
-      <c r="M16" s="1">
-        <v>6</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4</v>
-      </c>
-      <c r="O16" s="1">
-        <v>3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
@@ -1357,15 +1386,15 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1385,15 +1414,15 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1401,7 +1430,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -1413,15 +1442,15 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1437,25 +1466,39 @@
         <v>43401</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="1">
+        <v>7</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
@@ -1465,39 +1508,25 @@
         <v>43401</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="1">
-        <v>7</v>
-      </c>
-      <c r="M21" s="1">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1">
-        <v>6</v>
-      </c>
-      <c r="O21" s="1">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
@@ -1507,25 +1536,39 @@
         <v>43401</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
@@ -1535,39 +1578,25 @@
         <v>43401</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="1">
-        <v>3</v>
-      </c>
-      <c r="M23" s="1">
-        <v>5</v>
-      </c>
-      <c r="N23" s="1">
-        <v>4</v>
-      </c>
-      <c r="O23" s="1">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
@@ -1577,19 +1606,19 @@
         <v>43401</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1605,19 +1634,19 @@
         <v>43401</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1633,19 +1662,19 @@
         <v>43401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1661,25 +1690,35 @@
         <v>43401</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="1">
+        <v>7</v>
+      </c>
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
+      <c r="N27" s="1">
+        <v>7</v>
+      </c>
+      <c r="O27" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
@@ -1689,27 +1728,41 @@
         <v>43401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -1717,105 +1770,101 @@
         <v>43401</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="1">
-        <v>7</v>
-      </c>
-      <c r="M29" s="1">
-        <v>6</v>
-      </c>
-      <c r="N29" s="1">
-        <v>7</v>
-      </c>
-      <c r="O29" s="1">
-        <v>6</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
-        <v>43395</v>
+        <v>43402</v>
       </c>
       <c r="C30" s="4">
-        <v>43401</v>
+        <v>43406</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="L30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="1">
         <v>4</v>
       </c>
       <c r="O30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
-        <v>43395</v>
+        <v>43402</v>
       </c>
       <c r="C31" s="4">
-        <v>43401</v>
+        <v>43406</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
@@ -1825,34 +1874,34 @@
         <v>43406</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
       </c>
       <c r="M32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" s="1">
         <v>4</v>
       </c>
       <c r="O32" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
@@ -1862,35 +1911,37 @@
       <c r="C33" s="4">
         <v>43406</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="L33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
         <v>4</v>
       </c>
-      <c r="N33" s="1">
-        <v>3</v>
-      </c>
       <c r="O33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
@@ -1901,34 +1952,34 @@
         <v>43406</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L34" s="1">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1">
+        <v>7</v>
+      </c>
+      <c r="N34" s="1">
         <v>5</v>
       </c>
-      <c r="M34" s="1">
+      <c r="O34" s="1">
         <v>5</v>
-      </c>
-      <c r="N34" s="1">
-        <v>4</v>
-      </c>
-      <c r="O34" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
@@ -1939,39 +1990,37 @@
         <v>43406</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="L35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" s="1">
         <v>2</v>
       </c>
       <c r="N35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O35" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -1979,35 +2028,25 @@
         <v>43406</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L36" s="1">
-        <v>6</v>
-      </c>
-      <c r="M36" s="1">
-        <v>7</v>
-      </c>
-      <c r="N36" s="1">
-        <v>5</v>
-      </c>
-      <c r="O36" s="1">
-        <v>5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
     </row>
     <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
@@ -2017,35 +2056,25 @@
         <v>43406</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" s="1">
-        <v>5</v>
-      </c>
-      <c r="M37" s="1">
-        <v>2</v>
-      </c>
-      <c r="N37" s="1">
-        <v>5</v>
-      </c>
-      <c r="O37" s="1">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
     </row>
     <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
@@ -2055,19 +2084,19 @@
         <v>43406</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2083,27 +2112,37 @@
         <v>43406</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4</v>
+      </c>
+      <c r="M39" s="1">
+        <v>5</v>
+      </c>
+      <c r="N39" s="1">
+        <v>5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -2115,21 +2154,31 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
@@ -2139,31 +2188,31 @@
         <v>43406</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O41" s="1">
         <v>4</v>
@@ -2177,31 +2226,31 @@
         <v>43406</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O42" s="1">
         <v>5</v>
@@ -2209,81 +2258,61 @@
     </row>
     <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
-        <v>43402</v>
+        <v>43388</v>
       </c>
       <c r="C43" s="4">
-        <v>43406</v>
+        <v>43413</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L43" s="1">
-        <v>2</v>
-      </c>
-      <c r="M43" s="1">
-        <v>3</v>
-      </c>
-      <c r="N43" s="1">
-        <v>2</v>
-      </c>
-      <c r="O43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
-        <v>43402</v>
+        <v>43395</v>
       </c>
       <c r="C44" s="4">
-        <v>43406</v>
+        <v>43413</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L44" s="1">
-        <v>7</v>
-      </c>
-      <c r="M44" s="1">
-        <v>5</v>
-      </c>
-      <c r="N44" s="1">
-        <v>5</v>
-      </c>
-      <c r="O44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -2291,19 +2320,19 @@
         <v>43413</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2319,19 +2348,19 @@
         <v>43413</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2347,19 +2376,19 @@
         <v>43413</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2367,7 +2396,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>43410</v>
       </c>
@@ -2375,19 +2404,19 @@
         <v>43413</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2395,7 +2424,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -2403,19 +2432,19 @@
         <v>43413</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2431,19 +2460,19 @@
         <v>43413</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2459,19 +2488,19 @@
         <v>43413</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2487,19 +2516,19 @@
         <v>43413</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2515,21 +2544,21 @@
         <v>43413</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2537,7 +2566,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43410</v>
       </c>
@@ -2545,21 +2574,21 @@
         <v>43413</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2567,15 +2596,48 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="4">
+        <v>43410</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43413</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:O54">
+  <autoFilter ref="B1:O55">
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2018" month="11" day="9" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="akid"/>
+        <filter val="徐江"/>
       </filters>
     </filterColumn>
-    <sortState ref="B2:N52">
-      <sortCondition ref="C1:C52"/>
+    <sortState ref="B2:O55">
+      <sortCondition ref="C1:C55"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -10,342 +10,2414 @@
     <sheet name="短评" sheetId="1" r:id="rId1"/>
     <sheet name="长报告" sheetId="2" r:id="rId2"/>
     <sheet name="更新报告" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="761">
+  <si>
+    <t>ZCoin</t>
+  </si>
+  <si>
+    <t>akid</t>
+  </si>
+  <si>
+    <t>Komodo</t>
+  </si>
+  <si>
+    <t>徐江</t>
+  </si>
+  <si>
+    <t>分析师</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Nxt</t>
+  </si>
+  <si>
+    <t>WAX</t>
+  </si>
+  <si>
+    <t>Dragonchain</t>
+  </si>
+  <si>
+    <t>QuarkChain</t>
+  </si>
+  <si>
+    <t>Ignis</t>
+  </si>
+  <si>
+    <t>Tokenomy</t>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scry.info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BridgeCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veritaseum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRYPTO20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigitalNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eidoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRootNetwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eternal Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonaCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groestlcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novacoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iconomi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centrality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubiq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigixDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOTchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crypto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>AWR</t>
+  </si>
+  <si>
+    <t>HyperCash</t>
+  </si>
+  <si>
+    <t>HSR</t>
+  </si>
+  <si>
+    <t>Vechain</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>TRON</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>Bytom</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Nebulas</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>eDiamond</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Zilliqa</t>
+  </si>
+  <si>
+    <t>ZIL</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>IOST</t>
+  </si>
+  <si>
+    <t>TrueChain</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Cardano</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>QTUM</t>
+  </si>
+  <si>
+    <t>Achian</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>Loopring</t>
+  </si>
+  <si>
+    <t>LRC</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>WICC</t>
+  </si>
+  <si>
+    <t>AION</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>Steem</t>
+  </si>
+  <si>
+    <t>Cortex</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>Rchain</t>
+  </si>
+  <si>
+    <t>Augur</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>0X</t>
+  </si>
+  <si>
+    <t>GXS</t>
+  </si>
+  <si>
+    <t>CyberMiles</t>
+  </si>
+  <si>
+    <t>MITH</t>
+  </si>
+  <si>
+    <t>Kcash</t>
+  </si>
+  <si>
+    <t>KyberNetwork</t>
+  </si>
+  <si>
+    <t>Game.com</t>
+  </si>
+  <si>
+    <t>Elastos</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Siacoin</t>
+  </si>
+  <si>
+    <t>Decentraland</t>
+  </si>
+  <si>
+    <t>linkEye</t>
+  </si>
+  <si>
+    <t>Populous</t>
+  </si>
+  <si>
+    <t>Wanchain</t>
+  </si>
+  <si>
+    <t>Dentacoin</t>
+  </si>
+  <si>
+    <t>Stratis</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>MOAC</t>
+  </si>
+  <si>
+    <t>Tezos</t>
+  </si>
+  <si>
+    <t>MakerDAO</t>
+  </si>
+  <si>
+    <t>LISK</t>
+  </si>
+  <si>
+    <t>ARDOR</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
+    <t>Walton链</t>
+  </si>
+  <si>
+    <t>Waltonchain</t>
+  </si>
+  <si>
+    <t>ChainLink</t>
+  </si>
+  <si>
+    <t>Bancor</t>
+  </si>
+  <si>
+    <t>Polymath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zipper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aeternity</t>
+  </si>
+  <si>
+    <t>AllSports</t>
+  </si>
+  <si>
+    <t>OmiseGO</t>
+  </si>
+  <si>
+    <t>PundiX</t>
+  </si>
+  <si>
+    <t>BasicAttention</t>
+  </si>
+  <si>
+    <t>MetaverseETP</t>
+  </si>
+  <si>
+    <t>monero</t>
+  </si>
+  <si>
+    <t>EOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品和技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achain</t>
+  </si>
+  <si>
+    <t>omisego</t>
+  </si>
+  <si>
+    <t>MAkerDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZCASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TenX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByteballBytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reddcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartCash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skycoin</t>
+  </si>
+  <si>
+    <t>Skycoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Horizen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>nxt</t>
+  </si>
+  <si>
+    <t>NXT</t>
+  </si>
+  <si>
+    <t>998999942</t>
+  </si>
+  <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["https://nxt.org/"]</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>quarkchain</t>
+  </si>
+  <si>
+    <t>QKC</t>
+  </si>
+  <si>
+    <t>801649919</t>
+  </si>
+  <si>
+    <t>10000000000</t>
+  </si>
+  <si>
+    <t>["https://quarkchain.io"]</t>
+  </si>
+  <si>
+    <t>0xea26c4ac16d4a5a106820bc8aee85fd0b7b2b664</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>polymath-network</t>
+  </si>
+  <si>
+    <t>POLY</t>
+  </si>
+  <si>
+    <t>Polymath</t>
+  </si>
+  <si>
+    <t>285282107</t>
+  </si>
+  <si>
+    <t>["Polymath"]</t>
+  </si>
+  <si>
+    <t>["https://www.polymath.network/"]</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>komodo</t>
+  </si>
+  <si>
+    <t>KMD</t>
+  </si>
+  <si>
+    <t>110384389</t>
+  </si>
+  <si>
+    <t>["https://komodoplatform.com/"]</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>groestlcoin</t>
+  </si>
+  <si>
+    <t>GRS</t>
+  </si>
+  <si>
+    <t>Groestlcoin</t>
+  </si>
+  <si>
+    <t>71096729</t>
+  </si>
+  <si>
+    <t>105000000</t>
+  </si>
+  <si>
+    <t>["http://www.groestlcoin.org/"]</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>934793407</t>
+  </si>
+  <si>
+    <t>1850000000</t>
+  </si>
+  <si>
+    <t>["0x39bb"]</t>
+  </si>
+  <si>
+    <t>["https://wax.io/"]</t>
+  </si>
+  <si>
+    <t>0x39Bb259F66E1C59d5ABEF88375979b4D20D98022</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>SALT</t>
+  </si>
+  <si>
+    <t>82438438</t>
+  </si>
+  <si>
+    <t>120000000</t>
+  </si>
+  <si>
+    <t>["https://www.saltlending.com/"]</t>
+  </si>
+  <si>
+    <t>0x4156D3342D5c385a87D264F90653733592000581</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>tenx</t>
+  </si>
+  <si>
+    <t>PAY</t>
   </si>
   <si>
     <t>TenX</t>
   </si>
   <si>
+    <t>109347861</t>
+  </si>
+  <si>
+    <t>205218256</t>
+  </si>
+  <si>
+    <t>["https://www.tenx.tech/"]</t>
+  </si>
+  <si>
+    <t>0xb97048628db6b661d4c2aa833e95dbe1a905b280</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>zcoin</t>
+  </si>
+  <si>
+    <t>XZC</t>
+  </si>
+  <si>
+    <t>5757841</t>
+  </si>
+  <si>
+    <t>21400000</t>
+  </si>
+  <si>
+    <t>["ZCOIN"]</t>
+  </si>
+  <si>
+    <t>["https://zcoin.io"]</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>dmarket</t>
+  </si>
+  <si>
+    <t>DMT</t>
+  </si>
+  <si>
+    <t>DMarket</t>
+  </si>
+  <si>
+    <t>50216064</t>
+  </si>
+  <si>
+    <t>56921773</t>
+  </si>
+  <si>
+    <t>["0x2ccb"]</t>
+  </si>
+  <si>
+    <t>["https://dmarket.com/"]</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>digixdao</t>
+  </si>
+  <si>
+    <t>DGD</t>
+  </si>
+  <si>
+    <t>DigixDAO</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>["https://digix.io/"]</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>ethos</t>
+  </si>
+  <si>
+    <t>ETHOS</t>
+  </si>
+  <si>
+    <t>Ethos</t>
+  </si>
+  <si>
+    <t>81643292</t>
+  </si>
+  <si>
+    <t>222295208</t>
+  </si>
+  <si>
+    <t>["BQX"]</t>
+  </si>
+  <si>
+    <t>["https://www.ethos.io/"]</t>
+  </si>
+  <si>
+    <t>0x5af2be193a6abca9c8817001f45744777db30756</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>pivx</t>
+  </si>
+  <si>
     <t>PIVX</t>
   </si>
   <si>
-    <t>ZCoin</t>
-  </si>
-  <si>
-    <t>akid</t>
-  </si>
-  <si>
-    <t>Skycoin</t>
+    <t>56781166</t>
+  </si>
+  <si>
+    <t>["DNET"]</t>
+  </si>
+  <si>
+    <t>["http://www.pivx.org"]</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>144306362</t>
+  </si>
+  <si>
+    <t>249471071</t>
+  </si>
+  <si>
+    <t>["https://credits.com/en"]</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>ark</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>Ark</t>
+  </si>
+  <si>
+    <t>105736630</t>
+  </si>
+  <si>
+    <t>136986630</t>
+  </si>
+  <si>
+    <t>["http://ark.io/"]</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>reddcoin</t>
+  </si>
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>ReddCoin</t>
+  </si>
+  <si>
+    <t>28808713174</t>
+  </si>
+  <si>
+    <t>["http://www.reddcoin.com/"]</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>enigma-project</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>74836171</t>
+  </si>
+  <si>
+    <t>150000000</t>
+  </si>
+  <si>
+    <t>["https://enigma.co/"]</t>
+  </si>
+  <si>
+    <t>0xf0ee6b27b759c9893ce4f094b49ad28fd15a23e4</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>digitalnote</t>
+  </si>
+  <si>
+    <t>XDN</t>
+  </si>
+  <si>
+    <t>DigitalNote</t>
+  </si>
+  <si>
+    <t>6928822446</t>
+  </si>
+  <si>
+    <t>8589869056</t>
+  </si>
+  <si>
+    <t>["http://digitalnote.org/"]</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>skycoin</t>
+  </si>
+  <si>
+    <t>SKY</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>["http://skycoin.net/"]</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>veritaseum</t>
+  </si>
+  <si>
+    <t>VERI</t>
+  </si>
+  <si>
+    <t>Veritaseum</t>
+  </si>
+  <si>
+    <t>2036645</t>
+  </si>
+  <si>
+    <t>["http://veritas.veritaseum.com/"]</t>
+  </si>
+  <si>
+    <t>0x8f3470A7388c05eE4e7AF3d01D8C722b0FF52374</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>dragonchain</t>
+  </si>
+  <si>
+    <t>DRGN</t>
+  </si>
+  <si>
+    <t>238421940</t>
+  </si>
+  <si>
+    <t>433494437</t>
+  </si>
+  <si>
+    <t>["https://dragonchain.com/"]</t>
+  </si>
+  <si>
+    <t>0x419c4db4b9e25d6db2ad9691ccb832c8d9fda05e</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>aurora</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>3536975757</t>
+  </si>
+  <si>
+    <t>["https://www.aurorachain.io"]</t>
+  </si>
+  <si>
+    <t>0x9ab165d795019b6d8b3e971dda91071421305e5a</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>vertcoin</t>
+  </si>
+  <si>
+    <t>VTC</t>
   </si>
   <si>
     <t>Vertcoin</t>
   </si>
   <si>
+    <t>46468175</t>
+  </si>
+  <si>
+    <t>84000000</t>
+  </si>
+  <si>
+    <t>["http://vertcoin.org/"]</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>eidoo</t>
+  </si>
+  <si>
+    <t>EDO</t>
+  </si>
+  <si>
+    <t>Eidoo</t>
+  </si>
+  <si>
+    <t>29261461</t>
+  </si>
+  <si>
+    <t>90208328</t>
+  </si>
+  <si>
+    <t>["https://eidoo.io/"]</t>
+  </si>
+  <si>
+    <t>0xced4e93198734ddaff8492d525bd258d49eb388e</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>gamecredits</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>GameCredits</t>
+  </si>
+  <si>
+    <t>69398788</t>
+  </si>
+  <si>
+    <t>["http://gamecredits.com"]</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>BRD</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>88733978</t>
+  </si>
+  <si>
+    <t>88862718</t>
+  </si>
+  <si>
+    <t>["https://token.breadapp.com/en/"]</t>
+  </si>
+  <si>
+    <t>0x558ec3152e2eb2174905cd19aea4e34a23de9ad6</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>emercoin</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>Emercoin</t>
+  </si>
+  <si>
+    <t>42118422</t>
+  </si>
+  <si>
+    <t>["http://emercoin.com/"]</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>smartcash</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>SmartCash</t>
+  </si>
+  <si>
+    <t>1053773052</t>
+  </si>
+  <si>
+    <t>5000000000</t>
+  </si>
+  <si>
+    <t>["https://smartcash.cc/"]</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>linkeye</t>
+  </si>
+  <si>
+    <t>LET</t>
+  </si>
+  <si>
+    <t>LinkEye</t>
+  </si>
+  <si>
+    <t>600000000</t>
+  </si>
+  <si>
+    <t>["http://www.linkeye.com/"]</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>factom</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>Factom</t>
+  </si>
+  <si>
+    <t>8745102</t>
+  </si>
+  <si>
+    <t>["http://factom.org/"]</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>ignis</t>
+  </si>
+  <si>
+    <t>IGNIS</t>
+  </si>
+  <si>
+    <t>761143950</t>
+  </si>
+  <si>
+    <t>999449694</t>
+  </si>
+  <si>
+    <t>["https://www.jelurida.com/ico", "https://www.jelurida.com"]</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>dropil</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>Dropil</t>
+  </si>
+  <si>
+    <t>22595213784</t>
+  </si>
+  <si>
+    <t>30000000000</t>
+  </si>
+  <si>
+    <t>["https://dropil.com"]</t>
+  </si>
+  <si>
+    <t>0x4672bad527107471cb5067a887f4656d585a8a31</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>centrality</t>
+  </si>
+  <si>
+    <t>CENNZ</t>
+  </si>
+  <si>
+    <t>Centrality</t>
+  </si>
+  <si>
+    <t>800040336</t>
+  </si>
+  <si>
+    <t>1200000000</t>
+  </si>
+  <si>
+    <t>["https://www.centrality.ai/"]</t>
+  </si>
+  <si>
+    <t>0x1122b6a0e00dce0563082b6e2953f3a943855c1f</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>peercoin</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
     <t>Peercoin</t>
   </si>
   <si>
-    <t>SmartCash</t>
-  </si>
-  <si>
-    <t>Komodo</t>
-  </si>
-  <si>
-    <t>徐江</t>
-  </si>
-  <si>
-    <t>分析师</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Nxt</t>
-  </si>
-  <si>
-    <t>WAX</t>
-  </si>
-  <si>
-    <t>Dragonchain</t>
-  </si>
-  <si>
-    <t>QuarkChain</t>
-  </si>
-  <si>
-    <t>Ignis</t>
-  </si>
-  <si>
-    <t>Tokenomy</t>
+    <t>25014983</t>
+  </si>
+  <si>
+    <t>["http://www.peercoin.net"]</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>ubiq</t>
+  </si>
+  <si>
+    <t>UBQ</t>
+  </si>
+  <si>
+    <t>Ubiq</t>
+  </si>
+  <si>
+    <t>42609099</t>
+  </si>
+  <si>
+    <t>["http://ubiqsmart.com/"]</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>tokenpay</t>
+  </si>
+  <si>
+    <t>TPAY</t>
+  </si>
+  <si>
+    <t>TokenPay</t>
+  </si>
+  <si>
+    <t>15622830</t>
+  </si>
+  <si>
+    <t>25000000</t>
+  </si>
+  <si>
+    <t>["https://www.tokenpay.com/"]</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>ubique-chain-of-things</t>
+  </si>
+  <si>
+    <t>UCT</t>
+  </si>
+  <si>
+    <t>Ubique Chain Of Things</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1050000000</t>
+  </si>
+  <si>
+    <t>["http://www.ucot.world/ "]</t>
+  </si>
+  <si>
+    <t>0x3c4bEa627039F0B7e7d21E34bB9C9FE962977518</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>mark-space</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>MARK.SPACE</t>
+  </si>
+  <si>
+    <t>508351513</t>
+  </si>
+  <si>
+    <t>3000000000</t>
+  </si>
+  <si>
+    <t>["https://mark.space/"]</t>
+  </si>
+  <si>
+    <t>0xf453b5b9d4e0b5c62ffb256bb2378cc2bc8e8a89</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>byteball</t>
+  </si>
+  <si>
+    <t>GBYTE</t>
+  </si>
+  <si>
+    <t>Byteball Bytes</t>
+  </si>
+  <si>
+    <t>662811</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>["https://byteball.org/"]</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>tokenomy</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>200000000</t>
+  </si>
+  <si>
+    <t>["https://www.tokenomy.com/"]</t>
+  </si>
+  <si>
+    <t>0xdd16ec0f66e54d453e6756713e533355989040e4</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>smartmesh</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>SmartMesh</t>
+  </si>
+  <si>
+    <t>1413716694</t>
+  </si>
+  <si>
+    <t>3141592653</t>
+  </si>
+  <si>
+    <t>["https://smartmesh.io/"]</t>
+  </si>
+  <si>
+    <t>0x55f93985431fc9304077687a35a1ba103dc1e081</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>bulwark</t>
+  </si>
+  <si>
+    <t>BWK</t>
+  </si>
+  <si>
+    <t>Bulwark</t>
+  </si>
+  <si>
+    <t>12794038</t>
+  </si>
+  <si>
+    <t>27000000</t>
+  </si>
+  <si>
+    <t>["https://bulwarkcrypto.com/"]</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>sharkcoin</t>
+  </si>
+  <si>
+    <t>SAK</t>
+  </si>
+  <si>
+    <t>Sharkcoin</t>
+  </si>
+  <si>
+    <t>["http://www.sharkcoin.org"]</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>neumark</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>Neumark</t>
+  </si>
+  <si>
+    <t>28748031</t>
+  </si>
+  <si>
+    <t>1500000000</t>
+  </si>
+  <si>
+    <t>["http://neufund.org/"]</t>
+  </si>
+  <si>
+    <t>0xa823e6722006afe99e91c30ff5295052fe6b8e32</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>scryinfo</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>Scry.info</t>
+  </si>
+  <si>
+    <t>440057074</t>
+  </si>
+  <si>
+    <t>["https://home.scry.info/"]</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>parkgene</t>
+  </si>
+  <si>
+    <t>GENE</t>
+  </si>
+  <si>
+    <t>Parkgene</t>
+  </si>
+  <si>
+    <t>279760863</t>
+  </si>
+  <si>
+    <t>928840384</t>
+  </si>
+  <si>
+    <t>["https://parkgene.io/"]</t>
+  </si>
+  <si>
+    <t>0x6dd4e4aad29a40edd6a409b9c1625186c9855b4d</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>parkingo</t>
+  </si>
+  <si>
+    <t>GOT</t>
+  </si>
+  <si>
+    <t>ParkinGo</t>
+  </si>
+  <si>
+    <t>94808613</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>shopzcoin</t>
+  </si>
+  <si>
+    <t>SZC</t>
+  </si>
+  <si>
+    <t>ShopZcoin</t>
+  </si>
+  <si>
+    <t>2000000000</t>
+  </si>
+  <si>
+    <t>["https://shopzcoin.com"]</t>
+  </si>
+  <si>
+    <t>1319</t>
+  </si>
+  <si>
+    <t>qwark</t>
+  </si>
+  <si>
+    <t>QWARK</t>
+  </si>
+  <si>
+    <t>Qwark</t>
+  </si>
+  <si>
+    <t>66672937</t>
+  </si>
+  <si>
+    <t>206075989</t>
+  </si>
+  <si>
+    <t>["http://www.qwark.io/"]</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>bridgecoin</t>
+  </si>
+  <si>
+    <t>BCO</t>
+  </si>
+  <si>
+    <t>BridgeCoin</t>
+  </si>
+  <si>
+    <t>["https://www.crypto-bridge.org/"]</t>
+  </si>
+  <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>pillar</t>
+  </si>
+  <si>
+    <t>PLR</t>
+  </si>
+  <si>
+    <t>Pillar</t>
+  </si>
+  <si>
+    <t>259348201</t>
+  </si>
+  <si>
+    <t>800000000</t>
+  </si>
+  <si>
+    <t>["https://pillarproject.io/"]</t>
+  </si>
+  <si>
+    <t>0xe3818504c1b32bf1557b16c238b2e01fd3149c17</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>novacoin</t>
+  </si>
+  <si>
+    <t>NVC</t>
+  </si>
+  <si>
+    <t>Novacoin</t>
+  </si>
+  <si>
+    <t>2217422</t>
+  </si>
+  <si>
+    <t>["http://novacoin.org"]</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>internxt</t>
+  </si>
+  <si>
+    <t>INXT</t>
+  </si>
+  <si>
+    <t>Internxt</t>
+  </si>
+  <si>
+    <t>629610</t>
+  </si>
+  <si>
+    <t>["https://internxt.io/"]</t>
+  </si>
+  <si>
+    <t>0xa8006c4ca56f24d6836727d106349320db7fef82</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>auroracoin</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>Auroracoin</t>
+  </si>
+  <si>
+    <t>11328528</t>
+  </si>
+  <si>
+    <t>["http://auroracoin.is/"]</t>
+  </si>
+  <si>
+    <t>1569</t>
+  </si>
+  <si>
+    <t>adzcoin</t>
+  </si>
+  <si>
+    <t>ADZ</t>
+  </si>
+  <si>
+    <t>Adzcoin</t>
+  </si>
+  <si>
+    <t>44450646</t>
+  </si>
+  <si>
+    <t>["https://adzcoin.org/"]</t>
+  </si>
+  <si>
+    <t>1654</t>
+  </si>
+  <si>
+    <t>deutsche-emark</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>Deutsche eMark</t>
+  </si>
+  <si>
+    <t>41997618</t>
+  </si>
+  <si>
+    <t>48979594</t>
+  </si>
+  <si>
+    <t>["http://deutsche-emark.de/"]</t>
+  </si>
+  <si>
+    <t>1880</t>
+  </si>
+  <si>
+    <t>cazcoin</t>
+  </si>
+  <si>
+    <t>CAZ</t>
+  </si>
+  <si>
+    <t>Cazcoin</t>
+  </si>
+  <si>
+    <t>35666851</t>
+  </si>
+  <si>
+    <t>42279775</t>
+  </si>
+  <si>
+    <t>["https://cazcoin.io/"]</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>bitcoin-scrypt</t>
+  </si>
+  <si>
+    <t>BTCS</t>
+  </si>
+  <si>
+    <t>Bitcoin Scrypt</t>
+  </si>
+  <si>
+    <t>17615950</t>
+  </si>
+  <si>
+    <t>["https://bitcoinscrypt.io/"]</t>
+  </si>
+  <si>
+    <t>2167</t>
+  </si>
+  <si>
+    <t>bitmark</t>
+  </si>
+  <si>
+    <t>Bitmark</t>
+  </si>
+  <si>
+    <t>9979175</t>
+  </si>
+  <si>
+    <t>["http://bitmark.io/"]</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>ubcoin-market</t>
+  </si>
+  <si>
+    <t>UBC</t>
+  </si>
+  <si>
+    <t>Ubcoin Market</t>
+  </si>
+  <si>
+    <t>342272358</t>
+  </si>
+  <si>
+    <t>633837701</t>
+  </si>
+  <si>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>sparks</t>
+  </si>
+  <si>
+    <t>SPK</t>
+  </si>
+  <si>
+    <t>Sparks</t>
+  </si>
+  <si>
+    <t>4089058</t>
+  </si>
+  <si>
+    <t>4916777</t>
+  </si>
+  <si>
+    <t>["https://sparks.gold/"]</t>
+  </si>
+  <si>
+    <t>2460</t>
+  </si>
+  <si>
+    <t>ethereum-dark</t>
+  </si>
+  <si>
+    <t>ETHD</t>
+  </si>
+  <si>
+    <t>Ethereum Dark</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>4200000</t>
+  </si>
+  <si>
+    <t>["https://www.ethereumdark.net/"]</t>
+  </si>
+  <si>
+    <t>0xdbfb423e9bbf16294388e07696a5120e4ceba0c5</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>quark</t>
+  </si>
+  <si>
+    <t>QRK</t>
+  </si>
+  <si>
+    <t>Quark</t>
+  </si>
+  <si>
+    <t>256719017</t>
+  </si>
+  <si>
+    <t>["http://www.qrknet.info/"]</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>bitpark-coin</t>
+  </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>Bitpark Coin</t>
+  </si>
+  <si>
+    <t>75000000</t>
+  </si>
+  <si>
+    <t>["https://bitpark.net/"]</t>
+  </si>
+  <si>
+    <t>0xf3d29fb98d2dc5e78c87198deef99377345fd6f1</t>
+  </si>
+  <si>
+    <t>2584</t>
+  </si>
+  <si>
+    <t>buzzcoin</t>
+  </si>
+  <si>
+    <t>BUZZ</t>
+  </si>
+  <si>
+    <t>BuzzCoin</t>
+  </si>
+  <si>
+    <t>19969668224</t>
+  </si>
+  <si>
+    <t>20000000000</t>
+  </si>
+  <si>
+    <t>["http://www.buzzcoin.info/"]</t>
+  </si>
+  <si>
+    <t>2678</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>DARK</t>
+  </si>
+  <si>
+    <t>2688</t>
+  </si>
+  <si>
+    <t>parkbyte</t>
+  </si>
+  <si>
+    <t>PKB</t>
+  </si>
+  <si>
+    <t>ParkByte</t>
+  </si>
+  <si>
+    <t>4764026</t>
+  </si>
+  <si>
+    <t>["http://www.parkbyte.com/"]</t>
+  </si>
+  <si>
+    <t>2827</t>
+  </si>
+  <si>
+    <t>mfcoinxt</t>
+  </si>
+  <si>
+    <t>MGXT</t>
+  </si>
+  <si>
+    <t>["http://www.mgcoinxt.com/"]</t>
+  </si>
+  <si>
+    <t>0x3286cdc6a574f6b2705b5d5e24c44ce8bf4b5eda</t>
+  </si>
+  <si>
+    <t>2922</t>
+  </si>
+  <si>
+    <t>colossuscoinxt</t>
+  </si>
+  <si>
+    <t>COLX</t>
+  </si>
+  <si>
+    <t>ColossusCoinXT</t>
+  </si>
+  <si>
+    <t>10724738924</t>
+  </si>
+  <si>
+    <t>10784272304</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>bitcoindark</t>
+  </si>
+  <si>
+    <t>BTCD</t>
+  </si>
+  <si>
+    <t>BitcoinDark</t>
+  </si>
+  <si>
+    <t>1288862</t>
+  </si>
+  <si>
+    <t>["http://bitcoindark.com/"]</t>
+  </si>
+  <si>
+    <t>3191</t>
+  </si>
+  <si>
+    <t>digital-credits</t>
+  </si>
+  <si>
+    <t>DGCS</t>
+  </si>
+  <si>
+    <t>Digital Credits</t>
+  </si>
+  <si>
+    <t>5826388</t>
+  </si>
+  <si>
+    <t>201284316</t>
+  </si>
+  <si>
+    <t>["http://dcredits.com/"]</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>aurora-dao</t>
+  </si>
+  <si>
+    <t>AURA</t>
+  </si>
+  <si>
+    <t>Aurora DAO</t>
+  </si>
+  <si>
+    <t>139410214</t>
+  </si>
+  <si>
+    <t>["ARA"]</t>
+  </si>
+  <si>
+    <t>["https://auroradao.com"]</t>
+  </si>
+  <si>
+    <t>0xcdcfc0f66c522fd086a1b725ea3c0eeb9f9e8814</t>
+  </si>
+  <si>
+    <t>3530</t>
+  </si>
+  <si>
+    <t>enigma</t>
+  </si>
+  <si>
+    <t>XNG</t>
+  </si>
+  <si>
+    <t>814636</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>["http://www.enigmacoin.exnet.su/"]</t>
+  </si>
+  <si>
+    <t>3617</t>
+  </si>
+  <si>
+    <t>bitquark</t>
+  </si>
+  <si>
+    <t>BTQ</t>
+  </si>
+  <si>
+    <t>BitQuark</t>
+  </si>
+  <si>
+    <t>10760571</t>
+  </si>
+  <si>
+    <t>["http://www.bitquark.info/"]</t>
+  </si>
+  <si>
+    <t>3970</t>
+  </si>
+  <si>
+    <t>deltacredits</t>
+  </si>
+  <si>
+    <t>DCRE</t>
+  </si>
+  <si>
+    <t>DeltaCredits</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>darklisk</t>
+  </si>
+  <si>
+    <t>DISK</t>
+  </si>
+  <si>
+    <t>DarkLisk</t>
+  </si>
+  <si>
+    <t>17888425</t>
+  </si>
+  <si>
+    <t>4098</t>
+  </si>
+  <si>
+    <t>gamemarkettoken</t>
+  </si>
+  <si>
+    <t>T4GM</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>poseidon_quark</t>
+  </si>
+  <si>
+    <t>POSQ</t>
+  </si>
+  <si>
+    <t>4128</t>
+  </si>
+  <si>
+    <t>linkey</t>
+  </si>
+  <si>
+    <t>LKY</t>
+  </si>
+  <si>
+    <t>Linkey</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>195000000</t>
+  </si>
+  <si>
+    <t>4260</t>
+  </si>
+  <si>
+    <t>zipper</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>4275</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>MARKS</t>
+  </si>
+  <si>
+    <t>4425</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>SPARK</t>
+  </si>
+  <si>
+    <t>4479</t>
+  </si>
+  <si>
+    <t>fazzcoin</t>
+  </si>
+  <si>
+    <t>FAZZ</t>
+  </si>
+  <si>
+    <t>Fazzcoin</t>
+  </si>
+  <si>
+    <t>1052496944</t>
+  </si>
+  <si>
+    <t>["http://fazzcoin.org/"]</t>
+  </si>
+  <si>
+    <t>4771</t>
+  </si>
+  <si>
+    <t>starcredits</t>
+  </si>
+  <si>
+    <t>STRC</t>
+  </si>
+  <si>
+    <t>StarCredits</t>
+  </si>
+  <si>
+    <t>4500000</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>["https://backto.earth/"]</t>
+  </si>
+  <si>
+    <t>0x46492473755e8df960f8034877f61732d718ce96</t>
+  </si>
+  <si>
+    <t>ZEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XAS</t>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ByteballBytes</t>
-  </si>
-  <si>
-    <t>Polymath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scry.info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emercoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crypto.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centrality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enigma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BridgeCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Veritaseum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pillar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRYPTO20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigitalNote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubiq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigitexFutures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenesisVision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zipper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dropil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eidoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OneRootNetwork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>币名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NucleusVision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGTX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digitex Futures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBTYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genesis Vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GVT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,99 +2425,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eternal Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonaCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MONA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TokenPay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Groestlcoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NucleusVision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmartMesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigixDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOTchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>novacoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reddcoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iconomi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +2433,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +2461,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -531,12 +2517,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,9 +2545,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -859,12 +2860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,49 +2882,49 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -932,27 +2932,31 @@
         <v>43392</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -960,19 +2964,21 @@
         <v>43392</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -980,7 +2986,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -988,27 +2994,31 @@
         <v>43392</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -1016,27 +3026,31 @@
         <v>43392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -1044,27 +3058,31 @@
         <v>43392</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -1072,27 +3090,31 @@
         <v>43392</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -1100,19 +3122,21 @@
         <v>43392</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1120,7 +3144,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -1128,29 +3152,31 @@
         <v>43392</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -1158,27 +3184,31 @@
         <v>43392</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -1186,27 +3216,31 @@
         <v>43392</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -1214,26 +3248,28 @@
         <v>43392</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -1248,7 +3284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -1256,27 +3292,31 @@
         <v>43392</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -1284,27 +3324,31 @@
         <v>43401</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -1312,26 +3356,28 @@
         <v>43401</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L15" s="1">
         <v>6</v>
@@ -1346,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -1354,27 +3400,31 @@
         <v>43401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -1382,27 +3432,31 @@
         <v>43401</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -1410,27 +3464,31 @@
         <v>43401</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -1438,27 +3496,31 @@
         <v>43401</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -1466,26 +3528,28 @@
         <v>43401</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L20" s="1">
         <v>7</v>
@@ -1500,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -1508,27 +3572,31 @@
         <v>43401</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -1536,26 +3604,28 @@
         <v>43401</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L22" s="1">
         <v>3</v>
@@ -1570,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -1578,27 +3648,31 @@
         <v>43401</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -1606,27 +3680,31 @@
         <v>43401</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -1634,27 +3712,31 @@
         <v>43401</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -1662,27 +3744,31 @@
         <v>43401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -1690,22 +3776,24 @@
         <v>43401</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L27" s="1">
         <v>7</v>
@@ -1720,7 +3808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -1728,26 +3816,28 @@
         <v>43401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L28" s="1">
         <v>4</v>
@@ -1762,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -1770,27 +3860,31 @@
         <v>43401</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>745</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -1798,22 +3892,24 @@
         <v>43406</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="L30" s="1">
         <v>5</v>
@@ -1828,7 +3924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -1836,22 +3932,24 @@
         <v>43406</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>746</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>747</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L31" s="1">
         <v>3</v>
@@ -1866,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -1874,22 +3972,24 @@
         <v>43406</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
@@ -1904,7 +4004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -1912,24 +4012,24 @@
         <v>43406</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
+        <v>753</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L33" s="1">
         <v>2</v>
@@ -1944,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -1952,22 +4052,24 @@
         <v>43406</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>748</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="L34" s="1">
         <v>6</v>
@@ -1982,7 +4084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -1990,22 +4092,24 @@
         <v>43406</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>750</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>749</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L35" s="1">
         <v>5</v>
@@ -2020,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -2028,27 +4132,39 @@
         <v>43406</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>751</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="1">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1">
+        <v>6</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -2056,19 +4172,21 @@
         <v>43406</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>754</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>755</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2076,7 +4194,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -2084,19 +4202,21 @@
         <v>43406</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2104,7 +4224,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -2112,22 +4232,24 @@
         <v>43406</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L39" s="1">
         <v>4</v>
@@ -2142,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -2150,22 +4272,24 @@
         <v>43406</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>716</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -2180,7 +4304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -2188,22 +4312,24 @@
         <v>43406</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>722</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L41" s="1">
         <v>2</v>
@@ -2218,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -2226,22 +4352,24 @@
         <v>43406</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L42" s="1">
         <v>7</v>
@@ -2256,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43388</v>
       </c>
@@ -2264,19 +4392,21 @@
         <v>43413</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2284,7 +4414,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>43395</v>
       </c>
@@ -2292,19 +4422,21 @@
         <v>43413</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>756</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2312,7 +4444,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -2320,19 +4452,21 @@
         <v>43413</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2340,7 +4474,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -2348,19 +4482,21 @@
         <v>43413</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2368,7 +4504,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43410</v>
       </c>
@@ -2376,19 +4512,21 @@
         <v>43413</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2404,19 +4542,25 @@
         <v>43413</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>757</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2424,7 +4568,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -2432,19 +4576,21 @@
         <v>43413</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2452,7 +4598,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
@@ -2460,19 +4606,21 @@
         <v>43413</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2480,7 +4628,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -2488,19 +4636,21 @@
         <v>43413</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2508,7 +4658,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43410</v>
       </c>
@@ -2516,19 +4666,21 @@
         <v>43413</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2536,7 +4688,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
@@ -2544,21 +4696,21 @@
         <v>43413</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>88</v>
+        <v>759</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2566,7 +4718,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43410</v>
       </c>
@@ -2574,21 +4726,21 @@
         <v>43413</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>91</v>
+        <v>760</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2596,7 +4748,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -2604,19 +4756,21 @@
         <v>43413</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2625,52 +4779,4438 @@
       <c r="O55" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O55">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2018" month="11" day="9" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="徐江"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="B2:O55">
-      <sortCondition ref="C1:C55"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B1:O55"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="9">
+        <v>43306</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="9">
+        <v>43262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
+        <v>43248</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="9">
+        <v>43280</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="9">
+        <v>43252</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>43353</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>43300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>43213</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>43385</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>43382</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>43276</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>43224</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>43256</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>43209</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>43234</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>43372</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>43290</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>43308</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>43325</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="9">
+        <v>43335</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="9">
+        <v>43231</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="9">
+        <v>43318</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="9">
+        <v>43292</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="9">
+        <v>43236</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="9">
+        <v>43340</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="9">
+        <v>43315</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="9">
+        <v>43321</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="9">
+        <v>43307</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="9">
+        <v>43215</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="9">
+        <v>43355</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="9">
+        <v>43243</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="9">
+        <v>43285</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="9">
+        <v>43312</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="9">
+        <v>43314</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="9">
+        <v>43326</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="9">
+        <v>43348</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="9">
+        <v>43272</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="9">
+        <v>43392</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="9">
+        <v>43311</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="9">
+        <v>43342</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="9">
+        <v>43399</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="9">
+        <v>43362</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="9">
+        <v>43229</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="9">
+        <v>43356</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="9">
+        <v>43264</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="9">
+        <v>43266</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="9">
+        <v>43227</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="9">
+        <v>43328</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="9">
+        <v>43371</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="9">
+        <v>43258</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="9">
+        <v>43298</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="9">
+        <v>43322</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="9">
+        <v>43305</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="9">
+        <v>43287</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="9">
+        <v>43336</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="9">
+        <v>43343</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="9">
+        <v>43222</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="9">
+        <v>43245</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="9">
+        <v>43217</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="9">
+        <v>43369</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="9">
+        <v>43369</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="9">
+        <v>43332</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="9">
+        <v>43294</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" s="9">
+        <v>43278</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="9">
+        <v>43238</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C68" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:H1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="9">
+        <v>43333</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="9">
+        <v>43380</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
+        <v>43270</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="9">
+        <v>43384</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="9">
+        <v>43249</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>43254</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>43391</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>43301</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>43379</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>43368</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>43398</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>43339</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>43350</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>43260</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>43241</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>43360</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>43349</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11">
+        <v>116</v>
+      </c>
+      <c r="F1" s="11">
+        <v>6784043.7000000002</v>
+      </c>
+      <c r="G1" s="11">
+        <v>59028666.810000002</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11">
+        <v>137</v>
+      </c>
+      <c r="F2" s="11">
+        <v>6659813.6600000001</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43845272.32</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="11">
+        <v>102</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4835782.4800000004</v>
+      </c>
+      <c r="G3" s="11">
+        <v>71666280.109999999</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>53</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4110399.07</v>
+      </c>
+      <c r="G4" s="11">
+        <v>157861818.55000001</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="11">
+        <v>146</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4087949.32</v>
+      </c>
+      <c r="G5" s="11">
+        <v>38907128.259999998</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3866826.07</v>
+      </c>
+      <c r="G6" s="11">
+        <v>73935527.069999993</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="11">
+        <v>117</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3354953.89</v>
+      </c>
+      <c r="G7" s="11">
+        <v>57911576.509999998</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="11">
+        <v>110</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3155291.4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>64660523.030000001</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>111</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3116783.6</v>
+      </c>
+      <c r="G9" s="11">
+        <v>62580281.020000003</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="11">
+        <v>249</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2803040.76</v>
+      </c>
+      <c r="G10" s="11">
+        <v>19677945.539999999</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="11">
+        <v>82</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1715944.94</v>
+      </c>
+      <c r="G11" s="11">
+        <v>81934866</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="11">
+        <v>164</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1585046.3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>33128354.510000002</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="11">
+        <v>94</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1584953.49</v>
+      </c>
+      <c r="G13" s="11">
+        <v>75230025.489999995</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="11">
+        <v>211</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1467385.82</v>
+      </c>
+      <c r="G14" s="11">
+        <v>22921367.120000001</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="11">
+        <v>74</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1320789.51</v>
+      </c>
+      <c r="G15" s="11">
+        <v>87821899.060000002</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="11">
+        <v>77</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1041060.66</v>
+      </c>
+      <c r="G16" s="11">
+        <v>85887612.480000004</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="11">
+        <v>125</v>
+      </c>
+      <c r="F17" s="11">
+        <v>995393.31</v>
+      </c>
+      <c r="G17" s="11">
+        <v>46893640.909999996</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="11">
+        <v>240</v>
+      </c>
+      <c r="F18" s="11">
+        <v>994462.83</v>
+      </c>
+      <c r="G18" s="11">
+        <v>20212428.260000002</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="11">
+        <v>162</v>
+      </c>
+      <c r="F19" s="11">
+        <v>882704.36</v>
+      </c>
+      <c r="G19" s="11">
+        <v>33638704</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="11">
+        <v>88</v>
+      </c>
+      <c r="F20" s="11">
+        <v>839334.85</v>
+      </c>
+      <c r="G20" s="11">
+        <v>78109922.269999996</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11">
+        <v>118</v>
+      </c>
+      <c r="F21" s="11">
+        <v>792384.05</v>
+      </c>
+      <c r="G21" s="11">
+        <v>56145586.869999997</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="11">
+        <v>78</v>
+      </c>
+      <c r="F22" s="11">
+        <v>665765.68999999994</v>
+      </c>
+      <c r="G22" s="11">
+        <v>84932249.340000004</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="11">
+        <v>168</v>
+      </c>
+      <c r="F23" s="11">
+        <v>532372.23</v>
+      </c>
+      <c r="G23" s="11">
+        <v>31841410.789999999</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="11">
+        <v>157</v>
+      </c>
+      <c r="F24" s="11">
+        <v>502560.36</v>
+      </c>
+      <c r="G24" s="11">
+        <v>35890100.729999997</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" s="11">
+        <v>341</v>
+      </c>
+      <c r="F25" s="11">
+        <v>484205.45</v>
+      </c>
+      <c r="G25" s="11">
+        <v>13287239.77</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" s="11">
+        <v>159</v>
+      </c>
+      <c r="F26" s="11">
+        <v>453206.71</v>
+      </c>
+      <c r="G26" s="11">
+        <v>34970221.340000004</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="11">
+        <v>126</v>
+      </c>
+      <c r="F27" s="11">
+        <v>406674.26</v>
+      </c>
+      <c r="G27" s="11">
+        <v>46222205.18</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" s="11">
+        <v>251</v>
+      </c>
+      <c r="F28" s="11">
+        <v>359406.93</v>
+      </c>
+      <c r="G28" s="11">
+        <v>19507695.43</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" s="11">
+        <v>567</v>
+      </c>
+      <c r="F29" s="11">
+        <v>347957.04</v>
+      </c>
+      <c r="G29" s="11">
+        <v>5663410.7400000002</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>319130.13</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11">
+        <v>173</v>
+      </c>
+      <c r="F31" s="11">
+        <v>299481.07</v>
+      </c>
+      <c r="G31" s="11">
+        <v>30501296.390000001</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E32" s="11">
+        <v>109</v>
+      </c>
+      <c r="F32" s="11">
+        <v>285183.3</v>
+      </c>
+      <c r="G32" s="11">
+        <v>67883379.209999993</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E33" s="11">
+        <v>160</v>
+      </c>
+      <c r="F33" s="11">
+        <v>254434.31</v>
+      </c>
+      <c r="G33" s="11">
+        <v>34418645.700000003</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="11">
+        <v>205</v>
+      </c>
+      <c r="F34" s="11">
+        <v>249659.78</v>
+      </c>
+      <c r="G34" s="11">
+        <v>23757965.100000001</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E35" s="11">
+        <v>213</v>
+      </c>
+      <c r="F35" s="11">
+        <v>188315.11</v>
+      </c>
+      <c r="G35" s="11">
+        <v>22804057.859999999</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" s="11">
+        <v>260</v>
+      </c>
+      <c r="F36" s="11">
+        <v>174670.33</v>
+      </c>
+      <c r="G36" s="11">
+        <v>18652506.059999999</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E37" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="11">
+        <v>153174.89000000001</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E38" s="11">
+        <v>772</v>
+      </c>
+      <c r="F38" s="11">
+        <v>127747.84</v>
+      </c>
+      <c r="G38" s="11">
+        <v>3219207.79</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E39" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="11">
+        <v>99052.28</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11">
+        <v>171</v>
+      </c>
+      <c r="F40" s="11">
+        <v>64074.98</v>
+      </c>
+      <c r="G40" s="11">
+        <v>30705208</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E41" s="11">
+        <v>202</v>
+      </c>
+      <c r="F41" s="11">
+        <v>59163.34</v>
+      </c>
+      <c r="G41" s="11">
+        <v>24712908.68</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" s="11">
+        <v>437</v>
+      </c>
+      <c r="F42" s="11">
+        <v>32453.09</v>
+      </c>
+      <c r="G42" s="11">
+        <v>8992178.3000000007</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E43" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="11">
+        <v>30263.91</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E44" s="11">
+        <v>443</v>
+      </c>
+      <c r="F44" s="11">
+        <v>29398.78</v>
+      </c>
+      <c r="G44" s="11">
+        <v>8871927.5500000007</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E45" s="11">
+        <v>176</v>
+      </c>
+      <c r="F45" s="11">
+        <v>27477.37</v>
+      </c>
+      <c r="G45" s="11">
+        <v>30141053.600000001</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1269</v>
+      </c>
+      <c r="F46" s="11">
+        <v>19255.990000000002</v>
+      </c>
+      <c r="G46" s="11">
+        <v>725295.06</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E47" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="11">
+        <v>18796.78</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E48" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>14967.57</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1094</v>
+      </c>
+      <c r="F49" s="11">
+        <v>8919.34</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1243864.1100000001</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E50" s="11">
+        <v>151</v>
+      </c>
+      <c r="F50" s="11">
+        <v>8849.85</v>
+      </c>
+      <c r="G50" s="11">
+        <v>37276688.700000003</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E51" s="11">
+        <v>179</v>
+      </c>
+      <c r="F51" s="11">
+        <v>8766.32</v>
+      </c>
+      <c r="G51" s="11">
+        <v>29476608.809999999</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E52" s="11">
+        <v>414</v>
+      </c>
+      <c r="F52" s="11">
+        <v>5786.22</v>
+      </c>
+      <c r="G52" s="11">
+        <v>9985728.9100000001</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E53" s="11">
+        <v>1117</v>
+      </c>
+      <c r="F53" s="11">
+        <v>4903.38</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1150307.23</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E54" s="11">
+        <v>958</v>
+      </c>
+      <c r="F54" s="11">
+        <v>3467.19</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1874528.58</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1551</v>
+      </c>
+      <c r="F55" s="11">
+        <v>2920.69</v>
+      </c>
+      <c r="G55" s="11">
+        <v>299532.90000000002</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1702</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1978.22</v>
+      </c>
+      <c r="G56" s="11">
+        <v>174209.73</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1503</v>
+      </c>
+      <c r="F57" s="11">
+        <v>801.13</v>
+      </c>
+      <c r="G57" s="11">
+        <v>345412.28</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1640</v>
+      </c>
+      <c r="F58" s="11">
+        <v>406.62</v>
+      </c>
+      <c r="G58" s="11">
+        <v>215792.15</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1556</v>
+      </c>
+      <c r="F59" s="11">
+        <v>219.61</v>
+      </c>
+      <c r="G59" s="11">
+        <v>294260.65000000002</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1118</v>
+      </c>
+      <c r="F60" s="11">
+        <v>167.57</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1138799</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E61" s="11">
+        <v>1979</v>
+      </c>
+      <c r="F61" s="11">
+        <v>127.78</v>
+      </c>
+      <c r="G61" s="11">
+        <v>54271.47</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1936</v>
+      </c>
+      <c r="F62" s="11">
+        <v>42.76</v>
+      </c>
+      <c r="G62" s="11">
+        <v>67568.429999999993</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E63" s="11">
+        <v>971</v>
+      </c>
+      <c r="F63" s="11">
+        <v>36.22</v>
+      </c>
+      <c r="G63" s="11">
+        <v>1797006.14</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1791</v>
+      </c>
+      <c r="F64" s="11">
+        <v>30.02</v>
+      </c>
+      <c r="G64" s="11">
+        <v>122303.73</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E65" s="11">
+        <v>1313</v>
+      </c>
+      <c r="F65" s="11">
+        <v>14.93</v>
+      </c>
+      <c r="G65" s="11">
+        <v>629825.57999999996</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="E66" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="11">
+        <v>4.92</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1950</v>
+      </c>
+      <c r="F67" s="11">
+        <v>4.58</v>
+      </c>
+      <c r="G67" s="11">
+        <v>61990.080000000002</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E68" s="11">
+        <v>1079</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G68" s="11">
+        <v>1295788.3999999999</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="E69" s="11">
+        <v>344</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>12863359</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="E70" s="11">
+        <v>229</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <v>20991549.75</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="E71" s="11">
+        <v>2222</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>2220</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E72" s="11">
+        <v>450</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>8771524</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1871</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>88431</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E74" s="11">
+        <v>2131</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>20332.03</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="E75" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E76" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E77" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E78" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="E79" s="11">
+        <v>156</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>36242107</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E80" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F80" s="11">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="E81" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E82" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="E83" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1476</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11">
+        <v>381573</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="768">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2426,6 +2426,34 @@
   </si>
   <si>
     <t>MONA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2860,11 +2888,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2924,7 +2953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -2956,7 +2985,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -2986,7 +3015,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3018,7 +3047,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3050,7 +3079,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3082,7 +3111,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3114,7 +3143,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3144,7 +3173,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3176,7 +3205,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3208,7 +3237,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3240,7 +3269,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3284,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3316,7 +3345,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3348,7 +3377,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3392,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -3424,7 +3453,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3456,7 +3485,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3488,7 +3517,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3520,7 +3549,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -3564,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3596,7 +3625,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -3640,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -3672,7 +3701,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -3704,7 +3733,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -3736,7 +3765,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -3768,7 +3797,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -3808,7 +3837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -3852,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -3884,7 +3913,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -3924,7 +3953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -3964,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4004,7 +4033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -4044,7 +4073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4084,7 +4113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -4124,7 +4153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4224,7 +4253,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4264,7 +4293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4304,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4344,7 +4373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4438,11 +4467,21 @@
       <c r="J44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
@@ -4461,7 +4500,7 @@
         <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>38</v>
+        <v>765</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4491,18 +4530,28 @@
         <v>46</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>38</v>
+        <v>762</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>4</v>
+      </c>
+      <c r="N46" s="1">
+        <v>4</v>
+      </c>
+      <c r="O46" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
@@ -4551,7 +4600,7 @@
         <v>49</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>38</v>
+        <v>766</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>83</v>
@@ -4562,11 +4611,21 @@
       <c r="J48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L48" s="1">
+        <v>6</v>
+      </c>
+      <c r="M48" s="1">
+        <v>8</v>
+      </c>
+      <c r="N48" s="1">
+        <v>5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
@@ -4615,18 +4674,28 @@
         <v>46</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>38</v>
+        <v>762</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1">
+        <v>5</v>
+      </c>
+      <c r="O50" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
@@ -4652,11 +4721,21 @@
       <c r="J51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L51" s="1">
+        <v>7</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>6</v>
+      </c>
+      <c r="O51" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
@@ -4682,11 +4761,21 @@
       <c r="J52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4</v>
+      </c>
+      <c r="M52" s="1">
+        <v>3</v>
+      </c>
+      <c r="N52" s="1">
+        <v>7</v>
+      </c>
+      <c r="O52" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
@@ -4735,18 +4824,28 @@
         <v>21</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>69</v>
+        <v>762</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="L54" s="1">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1">
+        <v>8</v>
+      </c>
+      <c r="N54" s="1">
+        <v>8</v>
+      </c>
+      <c r="O54" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
@@ -4779,7 +4878,14 @@
       <c r="O55" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O55"/>
+  <autoFilter ref="B1:O55">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="I"/>
+        <filter val="N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4791,7 +4897,7 @@
   <dimension ref="B1:H68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -5871,7 +5977,7 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="9420"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19400" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="短评" sheetId="1" r:id="rId1"/>
     <sheet name="长报告" sheetId="2" r:id="rId2"/>
     <sheet name="更新报告" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="823">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2466,6 +2472,171 @@
   </si>
   <si>
     <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPB</t>
+  </si>
+  <si>
+    <t>$209.3万</t>
+  </si>
+  <si>
+    <t>$2,563万</t>
+  </si>
+  <si>
+    <t>3,730万</t>
+  </si>
+  <si>
+    <t>$3.267万</t>
+  </si>
+  <si>
+    <t>$2,269万</t>
+  </si>
+  <si>
+    <t>4,261万</t>
+  </si>
+  <si>
+    <t>TOMO</t>
+  </si>
+  <si>
+    <t>$50.24万</t>
+  </si>
+  <si>
+    <t>$2,265万</t>
+  </si>
+  <si>
+    <t>5,500万</t>
+  </si>
+  <si>
+    <t>POA</t>
+  </si>
+  <si>
+    <t>$41.39万</t>
+  </si>
+  <si>
+    <t>$2,024万</t>
+  </si>
+  <si>
+    <t>2.202亿</t>
+  </si>
+  <si>
+    <t>QRL</t>
+  </si>
+  <si>
+    <t>$4.248万</t>
+  </si>
+  <si>
+    <t>$1,825万</t>
+  </si>
+  <si>
+    <t>5,200万</t>
+  </si>
+  <si>
+    <t>ACT*</t>
+  </si>
+  <si>
+    <t>$67.67万</t>
+  </si>
+  <si>
+    <t>$1,804万</t>
+  </si>
+  <si>
+    <t>7.306亿</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>$401.1万</t>
+  </si>
+  <si>
+    <t>$1,753万</t>
+  </si>
+  <si>
+    <t>9,458万</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>$86.25万</t>
+  </si>
+  <si>
+    <t>$1,726万</t>
+  </si>
+  <si>
+    <t>7.418亿</t>
+  </si>
+  <si>
+    <t>PART</t>
+  </si>
+  <si>
+    <t>$7.159万</t>
+  </si>
+  <si>
+    <t>$1,636万</t>
+  </si>
+  <si>
+    <t>806.9万</t>
+  </si>
+  <si>
+    <t>BURST</t>
+  </si>
+  <si>
+    <t>$5.899万</t>
+  </si>
+  <si>
+    <t>$1,621万</t>
+  </si>
+  <si>
+    <t>19.98亿</t>
+  </si>
+  <si>
+    <t>CPX</t>
+  </si>
+  <si>
+    <t>$45.68万</t>
+  </si>
+  <si>
+    <t>$1,524万</t>
+  </si>
+  <si>
+    <t>4.448亿</t>
+  </si>
+  <si>
+    <t>ACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2477,7 +2648,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2507,6 +2678,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2532,38 +2721,92 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2582,9 +2825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2598,10 +2838,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="20">
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2900,27 +3162,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O55"/>
+  <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:15">
       <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
@@ -2964,7 +3226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -2972,13 +3234,13 @@
         <v>43392</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -2988,15 +3250,13 @@
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -3004,13 +3264,13 @@
         <v>43392</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -3020,13 +3280,15 @@
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3034,10 +3296,10 @@
         <v>43392</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>47</v>
@@ -3050,15 +3312,13 @@
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3066,13 +3326,13 @@
         <v>43392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -3090,7 +3350,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3098,13 +3358,13 @@
         <v>43392</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -3122,7 +3382,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3130,13 +3390,13 @@
         <v>43392</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
@@ -3147,14 +3407,14 @@
         <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3162,13 +3422,13 @@
         <v>43392</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>746</v>
+        <v>329</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -3178,13 +3438,15 @@
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3192,13 +3454,13 @@
         <v>43392</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -3209,14 +3471,14 @@
         <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3224,31 +3486,43 @@
         <v>43392</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3256,13 +3530,13 @@
         <v>43392</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -3280,7 +3554,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3288,43 +3562,31 @@
         <v>43392</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>443</v>
+        <v>258</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" ht="13.5" customHeight="1">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3332,13 +3594,13 @@
         <v>43392</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>224</v>
+        <v>738</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
@@ -3349,14 +3611,14 @@
         <v>17</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" customHeight="1">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3388,7 +3650,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3432,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -3440,21 +3702,21 @@
         <v>43401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>203</v>
+        <v>423</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>190</v>
@@ -3464,7 +3726,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3472,31 +3734,43 @@
         <v>43401</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3504,13 +3778,13 @@
         <v>43401</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>342</v>
+        <v>739</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
@@ -3521,14 +3795,14 @@
         <v>17</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3536,13 +3810,13 @@
         <v>43401</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>17</v>
@@ -3553,14 +3827,14 @@
         <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -3568,43 +3842,31 @@
         <v>43401</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>684</v>
+        <v>384</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="1">
-        <v>7</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
-      <c r="N20" s="1">
-        <v>6</v>
-      </c>
-      <c r="O20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3612,31 +3874,43 @@
         <v>43401</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>384</v>
+        <v>229</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -3644,43 +3918,31 @@
         <v>43401</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1">
-        <v>4</v>
-      </c>
-      <c r="O22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -3688,21 +3950,21 @@
         <v>43401</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>423</v>
+        <v>203</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>190</v>
@@ -3712,7 +3974,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -3720,13 +3982,13 @@
         <v>43401</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>409</v>
+        <v>210</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>17</v>
@@ -3737,14 +3999,14 @@
         <v>17</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -3752,10 +4014,10 @@
         <v>43401</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>739</v>
+        <v>473</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
@@ -3776,7 +4038,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -3784,31 +4046,39 @@
         <v>43401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="L26" s="1">
+        <v>7</v>
+      </c>
+      <c r="M26" s="1">
+        <v>6</v>
+      </c>
+      <c r="N26" s="1">
+        <v>7</v>
+      </c>
+      <c r="O26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -3816,39 +4086,31 @@
         <v>43401</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>437</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="1">
-        <v>7</v>
-      </c>
-      <c r="M27" s="1">
-        <v>6</v>
-      </c>
-      <c r="N27" s="1">
-        <v>7</v>
-      </c>
-      <c r="O27" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="2:15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -3856,43 +4118,31 @@
         <v>43401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>294</v>
+        <v>740</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="1">
-        <v>4</v>
-      </c>
-      <c r="M28" s="1">
-        <v>4</v>
-      </c>
-      <c r="N28" s="1">
-        <v>4</v>
-      </c>
-      <c r="O28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -3900,31 +4150,43 @@
         <v>43401</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>740</v>
+        <v>684</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="L29" s="1">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>6</v>
+      </c>
+      <c r="O29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -3932,39 +4194,39 @@
         <v>43406</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>764</v>
+        <v>168</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>765</v>
+        <v>376</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
         <v>5</v>
       </c>
-      <c r="M30" s="1">
-        <v>3</v>
-      </c>
       <c r="N30" s="1">
+        <v>5</v>
+      </c>
+      <c r="O30" s="1">
         <v>4</v>
       </c>
-      <c r="O30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -3972,16 +4234,16 @@
         <v>43406</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3989,22 +4251,22 @@
         <v>763</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L31" s="1">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1">
         <v>3</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>4</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>3</v>
       </c>
-      <c r="O31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="2:15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4012,79 +4274,79 @@
         <v>43406</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>479</v>
+        <v>743</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>763</v>
+        <v>18</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
       </c>
       <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1">
         <v>5</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>4</v>
       </c>
-      <c r="O32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="2:15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
       <c r="C33" s="4">
         <v>43406</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>768</v>
+      <c r="D33" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>747</v>
+        <v>279</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="L33" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M33" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4092,79 +4354,69 @@
         <v>43406</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="L34" s="1">
-        <v>6</v>
-      </c>
-      <c r="M34" s="1">
-        <v>7</v>
-      </c>
-      <c r="N34" s="1">
-        <v>5</v>
-      </c>
-      <c r="O34" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="2:15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
       <c r="C35" s="4">
         <v>43406</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>744</v>
+      <c r="D35" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>763</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="L35" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" s="1">
         <v>2</v>
       </c>
       <c r="N35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O35" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4172,16 +4424,16 @@
         <v>43406</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -4189,22 +4441,22 @@
         <v>762</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="L36" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M36" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
         <v>5</v>
       </c>
-      <c r="O36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -4212,29 +4464,39 @@
         <v>43406</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+        <v>763</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="L37" s="1">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1">
+        <v>7</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -4242,29 +4504,39 @@
         <v>43406</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>766</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>243</v>
+        <v>741</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+        <v>763</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3</v>
+      </c>
+      <c r="M38" s="1">
+        <v>4</v>
+      </c>
+      <c r="N38" s="1">
+        <v>3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4272,16 +4544,16 @@
         <v>43406</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>376</v>
+        <v>745</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -4289,13 +4561,13 @@
         <v>762</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L39" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M39" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N39" s="1">
         <v>5</v>
@@ -4304,7 +4576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4312,39 +4584,29 @@
         <v>43406</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>711</v>
+        <v>243</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4352,39 +4614,39 @@
         <v>43406</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>170</v>
+        <v>767</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>717</v>
+        <v>479</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L41" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M41" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4392,13 +4654,13 @@
         <v>43406</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>279</v>
+        <v>717</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>60</v>
@@ -4409,69 +4671,79 @@
         <v>762</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L42" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M42" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
       <c r="B43" s="4">
-        <v>43388</v>
-      </c>
-      <c r="C43" s="4">
+        <v>43410</v>
+      </c>
+      <c r="C43" s="3">
         <v>43413</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>59</v>
+        <v>756</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K43" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>4</v>
+      </c>
+      <c r="N43" s="1">
+        <v>4</v>
+      </c>
+      <c r="O43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
       <c r="B44" s="4">
-        <v>43395</v>
-      </c>
-      <c r="C44" s="4">
+        <v>43410</v>
+      </c>
+      <c r="C44" s="3">
         <v>43413</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4479,22 +4751,22 @@
         <v>18</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4524,7 +4796,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4532,16 +4804,16 @@
         <v>43413</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>539</v>
+        <v>362</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>756</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4552,19 +4824,19 @@
         <v>757</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M46" s="1">
+        <v>2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>6</v>
+      </c>
+      <c r="O46" s="1">
         <v>4</v>
       </c>
-      <c r="N46" s="1">
-        <v>4</v>
-      </c>
-      <c r="O46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="2:15">
       <c r="B47" s="4">
         <v>43410</v>
       </c>
@@ -4594,7 +4866,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15">
       <c r="B48" s="4">
         <v>43410</v>
       </c>
@@ -4638,77 +4910,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
       <c r="C49" s="3">
         <v>43413</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>41</v>
+      <c r="D49" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>335</v>
+        <v>754</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K49" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5</v>
+      </c>
+      <c r="M49" s="1">
+        <v>8</v>
+      </c>
+      <c r="N49" s="1">
+        <v>8</v>
+      </c>
+      <c r="O49" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
       <c r="C50" s="3">
         <v>43413</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>42</v>
+      <c r="D50" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>46</v>
+        <v>552</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>756</v>
+        <v>78</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="L50" s="1">
-        <v>4</v>
-      </c>
-      <c r="M50" s="1">
-        <v>4</v>
-      </c>
-      <c r="N50" s="1">
-        <v>5</v>
-      </c>
-      <c r="O50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="2:15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -4716,16 +4988,16 @@
         <v>43413</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>362</v>
+        <v>544</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>38</v>
+        <v>756</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4736,36 +5008,36 @@
         <v>757</v>
       </c>
       <c r="L51" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M51" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N51" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
       <c r="B52" s="4">
-        <v>43410</v>
-      </c>
-      <c r="C52" s="3">
+        <v>43395</v>
+      </c>
+      <c r="C52" s="4">
         <v>43413</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4773,39 +5045,39 @@
         <v>18</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M52" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O52" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
       <c r="C53" s="3">
         <v>43413</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>67</v>
+      <c r="D53" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>753</v>
+        <v>335</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4818,47 +5090,37 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15">
       <c r="B54" s="4">
-        <v>43410</v>
-      </c>
-      <c r="C54" s="3">
+        <v>43388</v>
+      </c>
+      <c r="C54" s="4">
         <v>43413</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>68</v>
+      <c r="D54" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>754</v>
+        <v>322</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>756</v>
+        <v>57</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="L54" s="1">
-        <v>5</v>
-      </c>
-      <c r="M54" s="1">
-        <v>8</v>
-      </c>
-      <c r="N54" s="1">
-        <v>8</v>
-      </c>
-      <c r="O54" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="2:15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -4866,21 +5128,21 @@
         <v>43413</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>78</v>
+        <v>753</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4888,10 +5150,332 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C64" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C65" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C66" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C67" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:O1">
+    <sortState ref="B2:O65">
+      <sortCondition ref="C1:C65"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4899,20 +5483,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4934,8 +5518,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="9">
+    <row r="2" spans="2:8">
+      <c r="B2" s="8">
         <v>43306</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4949,8 +5533,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="9">
+    <row r="3" spans="2:8">
+      <c r="B3" s="8">
         <v>43262</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4964,8 +5548,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="9">
+    <row r="4" spans="2:8">
+      <c r="B4" s="8">
         <v>43248</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -4981,8 +5565,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="9">
+    <row r="5" spans="2:8">
+      <c r="B5" s="8">
         <v>43280</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4996,8 +5580,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="9">
+    <row r="6" spans="2:8">
+      <c r="B6" s="8">
         <v>43252</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5013,8 +5597,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
+    <row r="7" spans="2:8">
+      <c r="B7" s="8">
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -5028,8 +5612,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
+    <row r="8" spans="2:8">
+      <c r="B8" s="8">
         <v>43300</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5043,8 +5627,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
+    <row r="9" spans="2:8">
+      <c r="B9" s="8">
         <v>43213</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5060,8 +5644,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
+    <row r="10" spans="2:8">
+      <c r="B10" s="8">
         <v>43385</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5075,8 +5659,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
+    <row r="11" spans="2:8">
+      <c r="B11" s="8">
         <v>43382</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5090,8 +5674,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
+    <row r="12" spans="2:8">
+      <c r="B12" s="8">
         <v>43276</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5105,8 +5689,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
+    <row r="13" spans="2:8">
+      <c r="B13" s="8">
         <v>43224</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5122,8 +5706,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
+    <row r="14" spans="2:8">
+      <c r="B14" s="8">
         <v>43256</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5139,8 +5723,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
+    <row r="15" spans="2:8">
+      <c r="B15" s="8">
         <v>43209</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5156,8 +5740,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
+    <row r="16" spans="2:8">
+      <c r="B16" s="8">
         <v>43234</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5173,8 +5757,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
+    <row r="17" spans="2:8">
+      <c r="B17" s="8">
         <v>43372</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5188,8 +5772,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
+    <row r="18" spans="2:8">
+      <c r="B18" s="8">
         <v>43290</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5203,8 +5787,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
+    <row r="19" spans="2:8">
+      <c r="B19" s="8">
         <v>43308</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5218,8 +5802,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
+    <row r="20" spans="2:8">
+      <c r="B20" s="8">
         <v>43325</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5233,8 +5817,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="9">
+    <row r="21" spans="2:8">
+      <c r="B21" s="8">
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5248,8 +5832,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="9">
+    <row r="22" spans="2:8">
+      <c r="B22" s="8">
         <v>43231</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5263,8 +5847,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="9">
+    <row r="23" spans="2:8">
+      <c r="B23" s="8">
         <v>43318</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5278,8 +5862,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="9">
+    <row r="24" spans="2:8">
+      <c r="B24" s="8">
         <v>43292</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5293,8 +5877,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="9">
+    <row r="25" spans="2:8">
+      <c r="B25" s="8">
         <v>43236</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5310,8 +5894,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="9">
+    <row r="26" spans="2:8">
+      <c r="B26" s="8">
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5325,8 +5909,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="9">
+    <row r="27" spans="2:8">
+      <c r="B27" s="8">
         <v>43315</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5340,8 +5924,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="9">
+    <row r="28" spans="2:8">
+      <c r="B28" s="8">
         <v>43321</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -5355,8 +5939,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="9">
+    <row r="29" spans="2:8">
+      <c r="B29" s="8">
         <v>43307</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5370,8 +5954,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="9">
+    <row r="30" spans="2:8">
+      <c r="B30" s="8">
         <v>43215</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -5387,8 +5971,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="9">
+    <row r="31" spans="2:8">
+      <c r="B31" s="8">
         <v>43355</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5402,8 +5986,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="9">
+    <row r="32" spans="2:8">
+      <c r="B32" s="8">
         <v>43243</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -5419,8 +6003,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="9">
+    <row r="33" spans="2:8">
+      <c r="B33" s="8">
         <v>43285</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -5434,8 +6018,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="9">
+    <row r="34" spans="2:8">
+      <c r="B34" s="8">
         <v>43312</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -5449,8 +6033,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="9">
+    <row r="35" spans="2:8">
+      <c r="B35" s="8">
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -5464,8 +6048,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="9">
+    <row r="36" spans="2:8">
+      <c r="B36" s="8">
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -5479,8 +6063,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="9">
+    <row r="37" spans="2:8">
+      <c r="B37" s="8">
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -5494,8 +6078,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="9">
+    <row r="38" spans="2:8">
+      <c r="B38" s="8">
         <v>43272</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -5511,8 +6095,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="9">
+    <row r="39" spans="2:8">
+      <c r="B39" s="8">
         <v>43347</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -5526,8 +6110,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="9">
+    <row r="40" spans="2:8">
+      <c r="B40" s="8">
         <v>43392</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5541,8 +6125,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="9">
+    <row r="41" spans="2:8">
+      <c r="B41" s="8">
         <v>43311</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5556,8 +6140,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="9">
+    <row r="42" spans="2:8">
+      <c r="B42" s="8">
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -5571,8 +6155,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="9">
+    <row r="43" spans="2:8">
+      <c r="B43" s="8">
         <v>43399</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -5586,8 +6170,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="9">
+    <row r="44" spans="2:8">
+      <c r="B44" s="8">
         <v>43362</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -5601,8 +6185,8 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="9">
+    <row r="45" spans="2:8">
+      <c r="B45" s="8">
         <v>43229</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -5618,8 +6202,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="9">
+    <row r="46" spans="2:8">
+      <c r="B46" s="8">
         <v>43356</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -5633,8 +6217,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="9">
+    <row r="47" spans="2:8">
+      <c r="B47" s="8">
         <v>43264</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -5648,8 +6232,8 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="9">
+    <row r="48" spans="2:8">
+      <c r="B48" s="8">
         <v>43266</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -5665,8 +6249,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="9">
+    <row r="49" spans="2:8">
+      <c r="B49" s="8">
         <v>43227</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -5682,8 +6266,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="9">
+    <row r="50" spans="2:8">
+      <c r="B50" s="8">
         <v>43328</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5697,8 +6281,8 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="9">
+    <row r="51" spans="2:8">
+      <c r="B51" s="8">
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5712,8 +6296,8 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" s="9">
+    <row r="52" spans="2:8">
+      <c r="B52" s="8">
         <v>43258</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5729,8 +6313,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="9">
+    <row r="53" spans="2:8">
+      <c r="B53" s="8">
         <v>43298</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -5744,8 +6328,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="9">
+    <row r="54" spans="2:8">
+      <c r="B54" s="8">
         <v>43322</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5759,8 +6343,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" s="9">
+    <row r="55" spans="2:8">
+      <c r="B55" s="8">
         <v>43305</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5774,8 +6358,8 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" s="9">
+    <row r="56" spans="2:8">
+      <c r="B56" s="8">
         <v>43287</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5789,8 +6373,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="9">
+    <row r="57" spans="2:8">
+      <c r="B57" s="8">
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -5804,8 +6388,8 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B58" s="9">
+    <row r="58" spans="2:8">
+      <c r="B58" s="8">
         <v>43343</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5819,8 +6403,8 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="9">
+    <row r="59" spans="2:8">
+      <c r="B59" s="8">
         <v>43222</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -5836,8 +6420,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="9">
+    <row r="60" spans="2:8">
+      <c r="B60" s="8">
         <v>43245</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -5853,8 +6437,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" s="9">
+    <row r="61" spans="2:8">
+      <c r="B61" s="8">
         <v>43217</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -5870,8 +6454,8 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="9">
+    <row r="62" spans="2:8">
+      <c r="B62" s="8">
         <v>43369</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -5885,8 +6469,8 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="9">
+    <row r="63" spans="2:8">
+      <c r="B63" s="8">
         <v>43369</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -5900,8 +6484,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="9">
+    <row r="64" spans="2:8">
+      <c r="B64" s="8">
         <v>43332</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -5915,8 +6499,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B65" s="9">
+    <row r="65" spans="2:8">
+      <c r="B65" s="8">
         <v>43294</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5930,8 +6514,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="9">
+    <row r="66" spans="2:8">
+      <c r="B66" s="8">
         <v>43278</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -5945,8 +6529,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="9">
+    <row r="67" spans="2:8">
+      <c r="B67" s="8">
         <v>43238</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -5962,8 +6546,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C68" s="10" t="s">
+    <row r="68" spans="2:8">
+      <c r="C68" s="9" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5971,7 +6555,12 @@
   <autoFilter ref="B1:H1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5983,14 +6572,14 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6012,8 +6601,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="9">
+    <row r="2" spans="2:8">
+      <c r="B2" s="8">
         <v>43333</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -6027,8 +6616,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="9">
+    <row r="3" spans="2:8">
+      <c r="B3" s="8">
         <v>43380</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6042,8 +6631,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="9">
+    <row r="4" spans="2:8">
+      <c r="B4" s="8">
         <v>43270</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -6057,8 +6646,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="9">
+    <row r="5" spans="2:8">
+      <c r="B5" s="8">
         <v>43384</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6072,8 +6661,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="9">
+    <row r="6" spans="2:8">
+      <c r="B6" s="8">
         <v>43249</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -6087,8 +6676,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
+    <row r="7" spans="2:8">
+      <c r="B7" s="8">
         <v>43254</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -6102,8 +6691,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
+    <row r="8" spans="2:8">
+      <c r="B8" s="8">
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6117,8 +6706,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
+    <row r="9" spans="2:8">
+      <c r="B9" s="8">
         <v>43301</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6132,8 +6721,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
+    <row r="10" spans="2:8">
+      <c r="B10" s="8">
         <v>43379</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -6147,8 +6736,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
+    <row r="11" spans="2:8">
+      <c r="B11" s="8">
         <v>43368</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6162,8 +6751,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
+    <row r="12" spans="2:8">
+      <c r="B12" s="8">
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -6177,8 +6766,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
+    <row r="13" spans="2:8">
+      <c r="B13" s="8">
         <v>43339</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6192,8 +6781,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
+    <row r="14" spans="2:8">
+      <c r="B14" s="8">
         <v>43350</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6207,8 +6796,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
+    <row r="15" spans="2:8">
+      <c r="B15" s="8">
         <v>43260</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -6222,8 +6811,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
+    <row r="16" spans="2:8">
+      <c r="B16" s="8">
         <v>43297</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -6237,8 +6826,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
+    <row r="17" spans="2:8">
+      <c r="B17" s="8">
         <v>43241</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -6252,8 +6841,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
+    <row r="18" spans="2:8">
+      <c r="B18" s="8">
         <v>43360</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6267,8 +6856,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
+    <row r="19" spans="2:8">
+      <c r="B19" s="8">
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -6285,6 +6874,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6292,3035 +6886,3328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="9" style="11"/>
+    <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>116</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <v>6784043.7000000002</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="10">
         <v>59028666.810000002</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>137</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>6659813.6600000001</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>43845272.32</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>102</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>4835782.4800000004</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>71666280.109999999</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>53</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>4110399.07</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>157861818.55000001</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>146</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>4087949.32</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>38907128.259999998</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>3866826.07</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>73935527.069999993</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>117</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>3354953.89</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>57911576.509999998</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>110</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>3155291.4</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>64660523.030000001</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>111</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>3116783.6</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>62580281.020000003</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>249</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>2803040.76</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>19677945.539999999</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>82</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1715944.94</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>81934866</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>164</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>1585046.3</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>33128354.510000002</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>94</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>1584953.49</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>75230025.489999995</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>211</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>1467385.82</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>22921367.120000001</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>74</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>1320789.51</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>87821899.060000002</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>77</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>1041060.66</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>85887612.480000004</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>125</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>995393.31</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>46893640.909999996</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>240</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>994462.83</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>20212428.260000002</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>162</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>882704.36</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>33638704</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>88</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>839334.85</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>78109922.269999996</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>118</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>792384.05</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>56145586.869999997</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>78</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>665765.68999999994</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>84932249.340000004</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>168</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>532372.23</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>31841410.789999999</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>157</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>502560.36</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>35890100.729999997</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>341</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>484205.45</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>13287239.77</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>159</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>453206.71</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>34970221.340000004</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>126</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>406674.26</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>46222205.18</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>251</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>359406.93</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>19507695.43</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>567</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>347957.04</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>5663410.7400000002</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>-1</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>319130.13</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>0</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>173</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>299481.07</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>30501296.390000001</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>109</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>285183.3</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>67883379.209999993</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>160</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>254434.31</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <v>34418645.700000003</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>205</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>249659.78</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>23757965.100000001</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>213</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>188315.11</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <v>22804057.859999999</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>260</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>174670.33</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>18652506.059999999</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>-1</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>153174.89000000001</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>0</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:12">
+      <c r="A38" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>772</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>127747.84</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>3219207.79</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>-1</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>99052.28</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>0</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:12">
+      <c r="A40" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>171</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>64074.98</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>30705208</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>202</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>59163.34</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>24712908.68</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>437</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>32453.09</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>8992178.3000000007</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:12">
+      <c r="A43" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>-1</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>30263.91</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>0</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:12">
+      <c r="A44" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>443</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>29398.78</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <v>8871927.5500000007</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>176</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>27477.37</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>30141053.600000001</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:12">
+      <c r="A46" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>1269</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>19255.990000000002</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>725295.06</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="10" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:12">
+      <c r="A47" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>-1</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>18796.78</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <v>0</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:12">
+      <c r="A48" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>-1</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>14967.57</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <v>0</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>1094</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>8919.34</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <v>1243864.1100000001</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:12">
+      <c r="A50" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>151</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>8849.85</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <v>37276688.700000003</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>179</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>8766.32</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <v>29476608.809999999</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <v>414</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>5786.22</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <v>9985728.9100000001</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:12">
+      <c r="A53" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>1117</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>4903.38</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <v>1150307.23</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="10" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:12">
+      <c r="A54" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>958</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>3467.19</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <v>1874528.58</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="10" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:12">
+      <c r="A55" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>1551</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>2920.69</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <v>299532.90000000002</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:12">
+      <c r="A56" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>1702</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>1978.22</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <v>174209.73</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:12">
+      <c r="A57" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>1503</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>801.13</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <v>345412.28</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="10" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>1640</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>406.62</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <v>215792.15</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="10" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:12">
+      <c r="A59" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>1556</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>219.61</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>294260.65000000002</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:12">
+      <c r="A60" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>1118</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>167.57</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <v>1138799</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:12">
+      <c r="A61" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>1979</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>127.78</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <v>54271.47</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="10" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:12">
+      <c r="A62" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>1936</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>42.76</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>67568.429999999993</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="L62" s="11" t="s">
+      <c r="L62" s="10" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:12">
+      <c r="A63" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <v>971</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>36.22</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <v>1797006.14</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="10" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:12">
+      <c r="A64" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>1791</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>30.02</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>122303.73</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="L64" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>1313</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>14.93</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <v>629825.57999999996</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>-1</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>4.92</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <v>0</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>1950</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>4.58</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <v>61990.080000000002</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:12">
+      <c r="A68" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>1079</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>0.02</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <v>1295788.3999999999</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="L68" s="10" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:12">
+      <c r="A69" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <v>344</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>0</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <v>12863359</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:12">
+      <c r="A70" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>229</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>0</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <v>20991549.75</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="10" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:12">
+      <c r="A71" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>2222</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>0</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <v>2220</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="10" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:12">
+      <c r="A72" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <v>450</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>0</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <v>8771524</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72" s="10" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:12">
+      <c r="A73" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <v>1871</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>0</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <v>88431</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="I73" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="10" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:12">
+      <c r="A74" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <v>2131</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>0</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <v>20332.03</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="10" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:12">
+      <c r="A75" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <v>-1</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>0</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <v>0</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K75" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:12">
+      <c r="A76" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <v>-1</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>0</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <v>0</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="K76" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:12">
+      <c r="A77" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>-1</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>0</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="10">
         <v>0</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    <row r="78" spans="1:12">
+      <c r="A78" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>-1</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>0</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="10">
         <v>0</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="I78" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J78" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K78" s="11" t="s">
+      <c r="K78" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:12">
+      <c r="A79" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>156</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>0</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="10">
         <v>36242107</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="K79" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:12">
+      <c r="A80" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="10">
         <v>-1</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>0</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="10">
         <v>0</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:12">
+      <c r="A81" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>-1</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>0</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="10">
         <v>0</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:12">
+      <c r="A82" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>-1</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>0</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="10">
         <v>0</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:12">
+      <c r="A83" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>-1</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>0</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <v>0</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="10" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:12">
+      <c r="A84" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>1476</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>0</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="10">
         <v>381573</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="10" t="s">
         <v>737</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11"/>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D2">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="E2" s="12">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G2" t="s">
+        <v>773</v>
+      </c>
+      <c r="H2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11"/>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-3.8300000000000001E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G3" t="s">
+        <v>776</v>
+      </c>
+      <c r="H3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11"/>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4">
+        <v>0.4118</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>779</v>
+      </c>
+      <c r="G4" t="s">
+        <v>780</v>
+      </c>
+      <c r="H4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11"/>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5">
+        <v>9.1939999999999994E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>783</v>
+      </c>
+      <c r="G5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11"/>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6">
+        <v>0.35089999999999999</v>
+      </c>
+      <c r="E6" s="12">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>787</v>
+      </c>
+      <c r="G6" t="s">
+        <v>788</v>
+      </c>
+      <c r="H6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11"/>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D7">
+        <v>2.469E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>791</v>
+      </c>
+      <c r="G7" t="s">
+        <v>792</v>
+      </c>
+      <c r="H7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11"/>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D8">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G8" t="s">
+        <v>796</v>
+      </c>
+      <c r="H8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>798</v>
+      </c>
+      <c r="D9">
+        <v>2.3269999999999999E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>799</v>
+      </c>
+      <c r="G9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11"/>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-6.6100000000000006E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>803</v>
+      </c>
+      <c r="G10" t="s">
+        <v>804</v>
+      </c>
+      <c r="H10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11"/>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>806</v>
+      </c>
+      <c r="D11">
+        <v>8.116E-3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>807</v>
+      </c>
+      <c r="G11" t="s">
+        <v>808</v>
+      </c>
+      <c r="H11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>810</v>
+      </c>
+      <c r="D12">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>811</v>
+      </c>
+      <c r="G12" t="s">
+        <v>812</v>
+      </c>
+      <c r="H12" t="s">
+        <v>813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="798">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2461,10 +2461,6 @@
     <t>CPX</t>
   </si>
   <si>
-    <t>ACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>徐江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2558,6 +2554,22 @@
   </si>
   <si>
     <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2569,7 +2581,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2614,6 +2626,22 @@
       <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2727,7 +2755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2763,6 +2791,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3089,8 +3129,8 @@
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3338,7 +3378,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3510,7 +3550,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3574,7 +3614,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3650,7 +3690,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3834,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -3866,7 +3906,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -4110,7 +4150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4172,7 +4212,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>66</v>
@@ -4270,7 +4310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4322,7 +4362,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>68</v>
@@ -4340,7 +4380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4402,7 +4442,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>760</v>
@@ -4442,7 +4482,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>51</v>
@@ -4460,7 +4500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4500,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4552,7 +4592,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>69</v>
@@ -4610,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4632,10 +4672,10 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -4658,7 +4698,7 @@
         <v>43413</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>744</v>
@@ -4667,12 +4707,12 @@
         <v>48</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>749</v>
@@ -4690,7 +4730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4707,7 +4747,7 @@
         <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4715,7 +4755,7 @@
         <v>18</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L45" s="1">
         <v>7</v>
@@ -4743,7 +4783,7 @@
         <v>46</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4774,7 +4814,7 @@
         <v>43413</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>395</v>
@@ -4783,7 +4823,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -4888,7 +4928,7 @@
         <v>43413</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>544</v>
@@ -4897,15 +4937,15 @@
         <v>71</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L50" s="1">
         <v>2</v>
@@ -4920,7 +4960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -4942,7 +4982,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>749</v>
@@ -4960,7 +5000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -4977,7 +5017,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -5000,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
@@ -5025,7 +5065,7 @@
         <v>18</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L53" s="1">
         <v>3</v>
@@ -5040,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5057,7 +5097,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -5078,7 +5118,7 @@
         <v>43413</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>745</v>
@@ -5087,15 +5127,15 @@
         <v>16</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -5110,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>43416</v>
       </c>
@@ -5122,23 +5162,33 @@
         <v>765</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+      <c r="M56" s="1">
+        <v>5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>3</v>
+      </c>
+      <c r="O56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>43416</v>
       </c>
@@ -5147,36 +5197,26 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="L57" s="1">
-        <v>4</v>
-      </c>
-      <c r="M57" s="1">
-        <v>5</v>
-      </c>
-      <c r="N57" s="1">
-        <v>3</v>
-      </c>
-      <c r="O57" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>43416</v>
       </c>
@@ -5188,10 +5228,10 @@
         <v>768</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5199,7 +5239,7 @@
         <v>18</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L58" s="1">
         <v>5</v>
@@ -5214,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>43416</v>
       </c>
@@ -5226,10 +5266,10 @@
         <v>769</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>776</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5242,7 +5282,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>43416</v>
       </c>
@@ -5254,10 +5294,10 @@
         <v>761</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5270,35 +5310,35 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61" s="4">
+    <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="13">
         <v>43416</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="13">
         <v>43420</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1" t="s">
+      <c r="F61" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>43416</v>
       </c>
@@ -5310,10 +5350,10 @@
         <v>767</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5338,10 +5378,10 @@
         <v>763</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5349,7 +5389,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L63" s="1">
         <v>5</v>
@@ -5364,7 +5404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="11">
         <v>43416</v>
       </c>
@@ -5376,10 +5416,10 @@
         <v>764</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -5387,7 +5427,7 @@
         <v>18</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L64" s="5">
         <v>6</v>
@@ -5414,21 +5454,31 @@
         <v>762</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="L65" s="1">
+        <v>4</v>
+      </c>
+      <c r="M65" s="1">
+        <v>5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>4</v>
+      </c>
+      <c r="O65" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
@@ -5439,13 +5489,13 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5458,7 +5508,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>43416</v>
       </c>
@@ -5467,13 +5517,13 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5488,16 +5538,15 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:O67">
-    <filterColumn colId="5">
+    <filterColumn colId="4">
       <filters>
-        <filter val="I"/>
-        <filter val="N"/>
+        <filter val="congcong"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5511,8 +5560,8 @@
   <dimension ref="B1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="800">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2509,6 +2509,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novacoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2517,19 +2545,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>novacoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2537,39 +2557,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3129,8 +3137,8 @@
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3378,7 +3386,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3550,7 +3558,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3614,7 +3622,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3690,7 +3698,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3874,7 +3882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -3906,7 +3914,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4650,7 +4658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4672,10 +4680,10 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -4712,7 +4720,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>749</v>
@@ -4747,7 +4755,7 @@
         <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4755,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L45" s="1">
         <v>7</v>
@@ -4766,7 +4774,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4788,7 +4796,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>749</v>
@@ -4880,7 +4888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -4902,7 +4910,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>18</v>
+        <v>797</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>747</v>
@@ -4928,7 +4936,7 @@
         <v>43413</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>544</v>
@@ -4942,10 +4950,10 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L50" s="1">
         <v>2</v>
@@ -4960,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -4977,12 +4985,12 @@
         <v>44</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>749</v>
@@ -5000,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5017,12 +5025,12 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>18</v>
+        <v>797</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>750</v>
@@ -5057,7 +5065,7 @@
         <v>43</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>796</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -5065,7 +5073,7 @@
         <v>18</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L53" s="1">
         <v>3</v>
@@ -5102,13 +5110,23 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+        <v>797</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1">
+        <v>5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
@@ -5132,10 +5150,10 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -5165,7 +5183,7 @@
         <v>772</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5197,13 +5215,13 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>772</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5231,7 +5249,7 @@
         <v>773</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5239,7 +5257,7 @@
         <v>18</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L58" s="1">
         <v>5</v>
@@ -5297,18 +5315,28 @@
         <v>770</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="L60" s="1">
+        <v>6</v>
+      </c>
+      <c r="M60" s="1">
+        <v>5</v>
+      </c>
+      <c r="N60" s="1">
+        <v>6</v>
+      </c>
+      <c r="O60" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="13">
@@ -5325,7 +5353,7 @@
         <v>773</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -5353,20 +5381,30 @@
         <v>773</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K62" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="L62" s="1">
+        <v>5</v>
+      </c>
+      <c r="M62" s="1">
+        <v>4</v>
+      </c>
+      <c r="N62" s="1">
+        <v>6</v>
+      </c>
+      <c r="O62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>43416</v>
       </c>
@@ -5381,7 +5419,7 @@
         <v>771</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5389,7 +5427,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L63" s="1">
         <v>5</v>
@@ -5419,7 +5457,7 @@
         <v>772</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -5427,7 +5465,7 @@
         <v>18</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L64" s="5">
         <v>6</v>
@@ -5457,15 +5495,15 @@
         <v>771</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>18</v>
+        <v>797</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L65" s="1">
         <v>4</v>
@@ -5480,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>43416</v>
       </c>
@@ -5495,7 +5533,7 @@
         <v>771</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5523,24 +5561,34 @@
         <v>774</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="K67" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="L67" s="1">
+        <v>3</v>
+      </c>
+      <c r="M67" s="1">
+        <v>3</v>
+      </c>
+      <c r="N67" s="1">
+        <v>6</v>
+      </c>
+      <c r="O67" s="1">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:O67">
-    <filterColumn colId="4">
+    <filterColumn colId="8">
       <filters>
-        <filter val="congcong"/>
+        <filter val="I"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="821">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2586,6 +2586,72 @@
   </si>
   <si>
     <t>Factom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytecoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSP</t>
+  </si>
+  <si>
+    <t>SMT*</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>SNM</t>
+  </si>
+  <si>
+    <t>VEE</t>
+  </si>
+  <si>
+    <t>XYO</t>
+  </si>
+  <si>
+    <t>MOBI</t>
+  </si>
+  <si>
+    <t>DNT</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3141,12 +3207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:O67"/>
+  <dimension ref="B1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3206,7 +3271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -3236,7 +3301,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -3268,7 +3333,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3298,7 +3363,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3330,7 +3395,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3362,7 +3427,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3394,7 +3459,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3426,7 +3491,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3458,7 +3523,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3502,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3534,7 +3599,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3566,7 +3631,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3598,7 +3663,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3630,7 +3695,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3714,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3758,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3790,7 +3855,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3854,7 +3919,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3898,7 +3963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -3930,7 +3995,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -3962,7 +4027,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -3994,7 +4059,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -4066,7 +4131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -4130,7 +4195,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -4174,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4214,7 +4279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -4294,7 +4359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -4334,7 +4399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4364,7 +4429,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -4404,7 +4469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4444,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -4484,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -4524,7 +4589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4564,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4594,7 +4659,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4634,7 +4699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4674,7 +4739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4714,7 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>43410</v>
       </c>
@@ -4754,7 +4819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4790,7 +4855,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4904,7 +4969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -4944,7 +5009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
@@ -4984,7 +5049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -5024,7 +5089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5104,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5144,7 +5209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -5222,7 +5287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>43416</v>
       </c>
@@ -5288,7 +5353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>43416</v>
       </c>
@@ -5354,7 +5419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="13">
         <v>43416</v>
       </c>
@@ -5496,7 +5561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>43416</v>
       </c>
@@ -5534,7 +5599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>43416</v>
       </c>
@@ -5600,19 +5665,288 @@
         <v>7</v>
       </c>
     </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B68" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C68" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B69" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C69" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B70" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C70" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B71" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C71" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B72" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C72" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B73" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C73" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B74" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C74" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B75" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C75" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B76" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B77" s="4">
+        <v>43423</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:O67">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="N"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:O67"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5626,11 +5960,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H68"/>
+  <dimension ref="B1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6692,9 +7026,34 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="8">
+        <v>43380</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69" s="8">
+        <v>43409</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:H1"/>
@@ -7032,7 +7391,7 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="825">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2648,6 +2648,26 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-performance Blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATRIX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3207,15 +3227,15 @@
   <dimension ref="B1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
@@ -4816,7 +4836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4838,7 +4858,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>18</v>
+        <v>820</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>785</v>
@@ -4849,10 +4869,14 @@
       <c r="M45" s="1">
         <v>7</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N45" s="1">
+        <v>8</v>
+      </c>
+      <c r="O45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4892,7 +4916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43410</v>
       </c>
@@ -4914,13 +4938,23 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+        <v>820</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="L47" s="1">
+        <v>6</v>
+      </c>
+      <c r="M47" s="1">
+        <v>6</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
@@ -4966,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -5086,7 +5120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5126,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
@@ -5148,7 +5182,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>18</v>
+        <v>820</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>780</v>
@@ -5166,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5378,14 +5412,16 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>43416</v>
       </c>
       <c r="C60" s="4">
         <v>43420</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>756</v>
       </c>
@@ -5398,7 +5434,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>18</v>
+        <v>820</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>792</v>
@@ -5558,7 +5594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>43416</v>
       </c>
@@ -5596,14 +5632,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>43416</v>
       </c>
       <c r="C66" s="4">
         <v>43420</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="E66" s="5" t="s">
         <v>771</v>
       </c>
@@ -5616,13 +5654,23 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+        <v>820</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="L66" s="1">
+        <v>3</v>
+      </c>
+      <c r="M66" s="1">
+        <v>6</v>
+      </c>
+      <c r="N66" s="1">
+        <v>6</v>
+      </c>
+      <c r="O66" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
@@ -5944,6 +5992,12 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:O77">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="I"/>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8">
       <filters>
         <filter val="I"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="824">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2596,78 +2596,81 @@
     <t>QSP</t>
   </si>
   <si>
+    <t>DNT</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-performance Blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATRIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SMT*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SNM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MOBI</t>
-  </si>
-  <si>
-    <t>DNT</t>
-  </si>
-  <si>
-    <t>RCN</t>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-performance Blockchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATRIX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3223,12 +3226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3288,7 +3290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -3318,7 +3320,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -3350,7 +3352,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3380,7 +3382,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3412,7 +3414,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3444,7 +3446,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3476,7 +3478,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3508,7 +3510,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3540,7 +3542,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3616,7 +3618,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3648,7 +3650,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3680,7 +3682,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3712,7 +3714,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3756,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3872,7 +3874,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3904,7 +3906,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -3936,7 +3938,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -4012,7 +4014,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -4044,7 +4046,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -4108,7 +4110,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -4180,7 +4182,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -4212,7 +4214,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4376,7 +4378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4446,7 +4448,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -4486,7 +4488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -4606,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4676,7 +4678,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4716,7 +4718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>43410</v>
       </c>
@@ -4858,7 +4860,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>785</v>
@@ -4876,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4898,7 +4900,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>744</v>
@@ -4938,10 +4940,10 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="L47" s="1">
         <v>6</v>
@@ -4956,7 +4958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>43410</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -5022,7 +5024,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>742</v>
@@ -5040,7 +5042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5142,7 +5144,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>745</v>
@@ -5182,7 +5184,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>780</v>
@@ -5200,7 +5202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5222,7 +5224,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>791</v>
@@ -5240,7 +5242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>43416</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>43416</v>
       </c>
@@ -5346,7 +5348,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>43416</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>43416</v>
       </c>
@@ -5420,7 +5422,7 @@
         <v>43420</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>756</v>
@@ -5434,7 +5436,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>792</v>
@@ -5452,7 +5454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="13">
         <v>43416</v>
       </c>
@@ -5480,7 +5482,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>43416</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>43416</v>
       </c>
@@ -5556,7 +5558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="11">
         <v>43416</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>43416</v>
       </c>
@@ -5614,7 +5616,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>788</v>
@@ -5640,7 +5642,7 @@
         <v>43420</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>771</v>
@@ -5654,10 +5656,10 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
@@ -5672,7 +5674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>43416</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>43423</v>
       </c>
@@ -5722,15 +5724,15 @@
         <v>803</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -5738,7 +5740,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>43423</v>
       </c>
@@ -5747,18 +5749,18 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -5766,7 +5768,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>43423</v>
       </c>
@@ -5775,18 +5777,18 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -5794,7 +5796,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>43423</v>
       </c>
@@ -5803,18 +5805,18 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -5822,7 +5824,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>43423</v>
       </c>
@@ -5831,18 +5833,18 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -5850,7 +5852,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>43423</v>
       </c>
@@ -5859,18 +5861,18 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>816</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5878,7 +5880,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>43423</v>
       </c>
@@ -5887,18 +5889,18 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>817</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -5906,7 +5908,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>43423</v>
       </c>
@@ -5915,18 +5917,18 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -5934,7 +5936,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>43423</v>
       </c>
@@ -5943,18 +5945,16 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>813</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -5962,7 +5962,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>43423</v>
       </c>
@@ -5971,18 +5971,16 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>815</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -5991,19 +5989,7 @@
       <c r="O77" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O77">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="I"/>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="I"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:O77"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2626,10 +2626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2671,6 +2667,10 @@
   </si>
   <si>
     <t>MOBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3226,11 +3226,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3290,7 +3291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -3320,7 +3321,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -3352,7 +3353,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3382,7 +3383,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3414,7 +3415,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3446,7 +3447,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3478,7 +3479,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3510,7 +3511,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3542,7 +3543,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3618,7 +3619,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3650,7 +3651,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3682,7 +3683,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3714,7 +3715,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3874,7 +3875,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3938,7 +3939,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -4014,7 +4015,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -4046,7 +4047,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -4078,7 +4079,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -4214,7 +4215,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4448,7 +4449,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4678,7 +4679,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>43410</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4860,7 +4861,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>785</v>
@@ -4878,7 +4879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43410</v>
       </c>
@@ -4940,10 +4941,10 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="L47" s="1">
         <v>6</v>
@@ -5002,7 +5003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
@@ -5184,7 +5185,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>780</v>
@@ -5202,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>43416</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>43416</v>
       </c>
@@ -5414,7 +5415,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>43416</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>43420</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>756</v>
@@ -5436,7 +5437,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>792</v>
@@ -5454,7 +5455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="13">
         <v>43416</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>43416</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>43416</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>43420</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>771</v>
@@ -5656,10 +5657,10 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
@@ -5712,7 +5713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>43423</v>
       </c>
@@ -5740,7 +5741,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>43423</v>
       </c>
@@ -5749,7 +5750,7 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>806</v>
@@ -5768,7 +5769,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>43423</v>
       </c>
@@ -5777,7 +5778,7 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>807</v>
@@ -5796,7 +5797,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>43423</v>
       </c>
@@ -5805,7 +5806,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>807</v>
@@ -5824,7 +5825,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>43423</v>
       </c>
@@ -5833,7 +5834,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>808</v>
@@ -5852,7 +5853,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>43423</v>
       </c>
@@ -5861,7 +5862,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>808</v>
@@ -5880,7 +5881,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>43423</v>
       </c>
@@ -5889,7 +5890,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>809</v>
@@ -5908,7 +5909,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>43423</v>
       </c>
@@ -5917,7 +5918,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>16</v>
@@ -5936,7 +5937,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>43423</v>
       </c>
@@ -5962,7 +5963,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>43423</v>
       </c>
@@ -5989,7 +5990,18 @@
       <c r="O77" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O77"/>
+  <autoFilter ref="B1:O77">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="827">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2461,212 +2461,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRYPTO20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eternal Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novacoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centrality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENNZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubiq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytecoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSP</t>
+  </si>
+  <si>
+    <t>DNT</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CRYPTO20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eternal Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>novacoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>High-performance Blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATRIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centrality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CENNZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emercoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubiq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytecoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSP</t>
-  </si>
-  <si>
-    <t>DNT</t>
-  </si>
-  <si>
-    <t>RCN</t>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-performance Blockchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATRIX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XYO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2682,7 +2694,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2732,15 +2744,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2900,10 +2904,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3229,16 +3233,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
@@ -3759,7 +3763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -3767,10 +3771,10 @@
         <v>43401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
@@ -3784,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -3907,7 +3911,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>43401</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>371</v>
@@ -4111,7 +4115,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>43401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>424</v>
@@ -4183,7 +4187,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>43401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>727</v>
@@ -4321,7 +4325,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>65</v>
@@ -4339,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4471,7 +4475,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>67</v>
@@ -4551,7 +4555,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>755</v>
@@ -4591,7 +4595,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>50</v>
@@ -4701,7 +4705,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>68</v>
@@ -4781,10 +4785,10 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -4807,7 +4811,7 @@
         <v>43413</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>739</v>
@@ -4816,12 +4820,12 @@
         <v>47</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>744</v>
@@ -4856,15 +4860,15 @@
         <v>42</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L45" s="1">
         <v>7</v>
@@ -4896,12 +4900,12 @@
         <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>744</v>
@@ -4927,7 +4931,7 @@
         <v>43413</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>390</v>
@@ -4936,15 +4940,15 @@
         <v>45</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L47" s="1">
         <v>6</v>
@@ -4959,7 +4963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>43410</v>
       </c>
@@ -5025,7 +5029,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>742</v>
@@ -5051,7 +5055,7 @@
         <v>43413</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>539</v>
@@ -5060,15 +5064,15 @@
         <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L50" s="1">
         <v>2</v>
@@ -5100,12 +5104,12 @@
         <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>744</v>
@@ -5140,12 +5144,12 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>745</v>
@@ -5180,15 +5184,15 @@
         <v>42</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L53" s="1">
         <v>3</v>
@@ -5220,15 +5224,15 @@
         <v>54</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
@@ -5251,7 +5255,7 @@
         <v>43413</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>740</v>
@@ -5260,15 +5264,15 @@
         <v>16</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -5298,12 +5302,12 @@
         <v>767</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>18</v>
+        <v>825</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>50</v>
@@ -5321,7 +5325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>43416</v>
       </c>
@@ -5330,26 +5334,36 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>767</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+        <v>825</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>4</v>
+      </c>
+      <c r="O57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>43416</v>
       </c>
@@ -5364,7 +5378,7 @@
         <v>768</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5372,7 +5386,7 @@
         <v>18</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L58" s="1">
         <v>5</v>
@@ -5387,7 +5401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>43416</v>
       </c>
@@ -5402,18 +5416,28 @@
         <v>769</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>770</v>
+        <v>826</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+        <v>825</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="L59" s="1">
+        <v>6</v>
+      </c>
+      <c r="M59" s="1">
+        <v>6</v>
+      </c>
+      <c r="N59" s="1">
+        <v>5</v>
+      </c>
+      <c r="O59" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
@@ -5423,7 +5447,7 @@
         <v>43420</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>756</v>
@@ -5432,15 +5456,15 @@
         <v>765</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L60" s="1">
         <v>6</v>
@@ -5455,7 +5479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="13">
         <v>43416</v>
       </c>
@@ -5470,20 +5494,30 @@
         <v>768</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>787</v>
+        <v>826</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
+        <v>825</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="L61" s="14">
+        <v>6</v>
+      </c>
+      <c r="M61" s="14">
+        <v>3</v>
+      </c>
+      <c r="N61" s="14">
+        <v>3</v>
+      </c>
+      <c r="O61" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>43416</v>
       </c>
@@ -5498,7 +5532,7 @@
         <v>768</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5506,7 +5540,7 @@
         <v>18</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L62" s="1">
         <v>5</v>
@@ -5521,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>43416</v>
       </c>
@@ -5536,7 +5570,7 @@
         <v>766</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5544,7 +5578,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L63" s="1">
         <v>5</v>
@@ -5574,15 +5608,15 @@
         <v>767</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5" t="s">
-        <v>18</v>
+        <v>825</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L64" s="5">
         <v>6</v>
@@ -5612,15 +5646,15 @@
         <v>766</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L65" s="1">
         <v>4</v>
@@ -5643,24 +5677,24 @@
         <v>43420</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>766</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
@@ -5675,7 +5709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>43416</v>
       </c>
@@ -5684,13 +5718,13 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>769</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5698,7 +5732,7 @@
         <v>18</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L67" s="1">
         <v>3</v>
@@ -5722,18 +5756,18 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -5750,18 +5784,18 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -5778,18 +5812,18 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -5806,18 +5840,18 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -5834,24 +5868,34 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F72" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+        <v>808</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="L72" s="1">
+        <v>3</v>
+      </c>
+      <c r="M72" s="1">
+        <v>7</v>
+      </c>
+      <c r="N72" s="1">
+        <v>7</v>
+      </c>
+      <c r="O72" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
@@ -5862,18 +5906,18 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F73" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5890,18 +5934,18 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -5918,18 +5962,18 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -5946,16 +5990,16 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -5972,16 +6016,16 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -5991,14 +6035,9 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:O77">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="8">
       <filters>
-        <filter val="N"/>
+        <filter val="I"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7089,7 +7128,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -7100,11 +7139,11 @@
         <v>43409</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="841">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2678,11 +2678,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XCP</t>
+  </si>
+  <si>
+    <t>TRAC</t>
+  </si>
+  <si>
+    <t>APPC</t>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRL</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3230,12 +3279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:O77"/>
+  <dimension ref="B1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3251,7 +3299,7 @@
     <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
@@ -3295,7 +3343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -3325,7 +3373,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -3357,7 +3405,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3387,7 +3435,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3419,7 +3467,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3451,7 +3499,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3483,7 +3531,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3515,7 +3563,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3547,7 +3595,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3591,7 +3639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3623,7 +3671,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3655,7 +3703,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3687,7 +3735,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3719,7 +3767,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3763,7 +3811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -3785,7 +3833,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>827</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>793</v>
@@ -3803,7 +3851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3847,7 +3895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3879,7 +3927,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3911,7 +3959,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -3943,7 +3991,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3987,7 +4035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -4019,7 +4067,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -4051,7 +4099,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -4083,7 +4131,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -4115,7 +4163,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -4137,7 +4185,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>827</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>50</v>
@@ -4155,7 +4203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -4187,7 +4235,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -4219,7 +4267,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -4263,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4303,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -4343,7 +4391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4383,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -4423,7 +4471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4453,7 +4501,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -4493,7 +4541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4533,7 +4581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -4573,7 +4621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -4613,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4653,7 +4701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4683,7 +4731,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4723,7 +4771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4763,7 +4811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4803,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>43410</v>
       </c>
@@ -4843,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4883,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4923,7 +4971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43410</v>
       </c>
@@ -4963,7 +5011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>43410</v>
       </c>
@@ -4989,7 +5037,7 @@
         <v>75</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>827</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>747</v>
@@ -5007,7 +5055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -5047,7 +5095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
@@ -5087,7 +5135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -5127,7 +5175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5167,7 +5215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
@@ -5207,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5247,7 +5295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -5307,7 +5355,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>50</v>
@@ -5340,12 +5388,12 @@
         <v>767</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>823</v>
@@ -5363,7 +5411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>43416</v>
       </c>
@@ -5416,12 +5464,12 @@
         <v>769</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>823</v>
@@ -5439,7 +5487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>43416</v>
       </c>
@@ -5494,12 +5542,12 @@
         <v>768</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>823</v>
@@ -5517,7 +5565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>43416</v>
       </c>
@@ -5537,7 +5585,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>18</v>
+        <v>827</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>789</v>
@@ -5555,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>43416</v>
       </c>
@@ -5575,7 +5623,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
-        <v>18</v>
+        <v>827</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>781</v>
@@ -5608,12 +5656,12 @@
         <v>767</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>783</v>
@@ -5631,7 +5679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>43416</v>
       </c>
@@ -5669,7 +5717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>43416</v>
       </c>
@@ -5709,7 +5757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>43416</v>
       </c>
@@ -5747,7 +5795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>43423</v>
       </c>
@@ -5775,7 +5823,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>43423</v>
       </c>
@@ -5803,7 +5851,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>43423</v>
       </c>
@@ -5831,7 +5879,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>43423</v>
       </c>
@@ -5859,7 +5907,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>43423</v>
       </c>
@@ -5897,7 +5945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>43423</v>
       </c>
@@ -5925,7 +5973,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>43423</v>
       </c>
@@ -5953,7 +6001,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>43423</v>
       </c>
@@ -5981,18 +6029,20 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>43423</v>
       </c>
       <c r="C76" s="4">
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>828</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>808</v>
       </c>
@@ -6007,18 +6057,20 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>43423</v>
       </c>
       <c r="C77" s="4">
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>829</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>808</v>
       </c>
@@ -6033,14 +6085,284 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B78" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43434</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B79" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C79" s="4">
+        <v>43434</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B80" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C80" s="4">
+        <v>43434</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B81" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C81" s="4">
+        <v>43434</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B82" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C82" s="4">
+        <v>43434</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B83" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C83" s="4">
+        <v>43434</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B84" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C84" s="4">
+        <v>43434</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:O77">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="I"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:O77"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="845">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2509,229 +2509,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centrality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENNZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubiq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytecoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNT</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-performance Blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATRIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XCP</t>
+  </si>
+  <si>
+    <t>TRAC</t>
+  </si>
+  <si>
+    <t>APPC</t>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRL</t>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centrality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CENNZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emercoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubiq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytecoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSP</t>
-  </si>
-  <si>
-    <t>DNT</t>
-  </si>
-  <si>
-    <t>RCN</t>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-performance Blockchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATRIX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XYO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XCP</t>
-  </si>
-  <si>
-    <t>TRAC</t>
-  </si>
-  <si>
-    <t>APPC</t>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCRL</t>
-  </si>
-  <si>
-    <t>REN</t>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAV</t>
-  </si>
-  <si>
-    <t>BLZ</t>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3282,8 +3300,8 @@
   <dimension ref="B1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J85" sqref="J85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3819,10 +3837,10 @@
         <v>43401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
@@ -3833,10 +3851,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -3967,7 +3985,7 @@
         <v>43401</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>371</v>
@@ -4171,7 +4189,7 @@
         <v>43401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>424</v>
@@ -4185,7 +4203,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>50</v>
@@ -4243,7 +4261,7 @@
         <v>43401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>727</v>
@@ -4257,15 +4275,23 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="L28" s="1">
+        <v>8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>6</v>
+      </c>
+      <c r="N28" s="1">
+        <v>7</v>
+      </c>
+      <c r="O28" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
@@ -4833,7 +4859,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>778</v>
@@ -4873,7 +4899,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>744</v>
@@ -4908,15 +4934,15 @@
         <v>42</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>782</v>
+        <v>844</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L45" s="1">
         <v>7</v>
@@ -4953,7 +4979,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>744</v>
@@ -4979,7 +5005,7 @@
         <v>43413</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>390</v>
@@ -4993,10 +5019,10 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="L47" s="1">
         <v>6</v>
@@ -5037,7 +5063,7 @@
         <v>75</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>747</v>
@@ -5077,7 +5103,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>742</v>
@@ -5117,7 +5143,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>777</v>
@@ -5152,12 +5178,12 @@
         <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>744</v>
@@ -5192,12 +5218,12 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>782</v>
+        <v>844</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>745</v>
@@ -5232,12 +5258,12 @@
         <v>42</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>779</v>
@@ -5277,10 +5303,10 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
@@ -5317,7 +5343,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>775</v>
@@ -5350,12 +5376,12 @@
         <v>767</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>50</v>
@@ -5382,21 +5408,21 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>767</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="L57" s="1">
         <v>4</v>
@@ -5426,7 +5452,7 @@
         <v>768</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5464,15 +5490,15 @@
         <v>769</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="L59" s="1">
         <v>6</v>
@@ -5495,7 +5521,7 @@
         <v>43420</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>756</v>
@@ -5504,15 +5530,15 @@
         <v>765</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L60" s="1">
         <v>6</v>
@@ -5542,15 +5568,15 @@
         <v>768</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="L61" s="14">
         <v>6</v>
@@ -5580,15 +5606,15 @@
         <v>768</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L62" s="1">
         <v>5</v>
@@ -5618,12 +5644,12 @@
         <v>766</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>781</v>
@@ -5656,15 +5682,15 @@
         <v>767</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L64" s="5">
         <v>6</v>
@@ -5694,15 +5720,15 @@
         <v>766</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="L65" s="1">
         <v>4</v>
@@ -5725,7 +5751,7 @@
         <v>43420</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>770</v>
@@ -5734,15 +5760,15 @@
         <v>766</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>785</v>
+        <v>844</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
@@ -5772,15 +5798,15 @@
         <v>769</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L67" s="1">
         <v>3</v>
@@ -5804,24 +5830,34 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>804</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+        <v>840</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="L68" s="1">
+        <v>7</v>
+      </c>
+      <c r="M68" s="1">
+        <v>6</v>
+      </c>
+      <c r="N68" s="1">
+        <v>5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
@@ -5832,18 +5868,18 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -5860,18 +5896,18 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F70" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -5888,24 +5924,34 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+        <v>840</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="L71" s="1">
+        <v>6</v>
+      </c>
+      <c r="M71" s="1">
+        <v>6</v>
+      </c>
+      <c r="N71" s="1">
+        <v>5</v>
+      </c>
+      <c r="O71" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
@@ -5916,21 +5962,21 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="L72" s="1">
         <v>3</v>
@@ -5954,18 +6000,18 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5982,18 +6028,18 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -6010,18 +6056,18 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -6038,18 +6084,18 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -6066,18 +6112,18 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -6094,24 +6140,34 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+        <v>835</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1">
+        <v>5</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
@@ -6122,18 +6178,18 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -6150,18 +6206,18 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6178,24 +6234,34 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+        <v>835</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="L81" s="1">
+        <v>4</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1">
+        <v>3</v>
+      </c>
+      <c r="O81" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
@@ -6206,18 +6272,18 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -6234,18 +6300,18 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -6262,18 +6328,18 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -6362,7 +6428,7 @@
       <c r="O89" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O77"/>
+  <autoFilter ref="B1:O84"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7450,7 +7516,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -7461,11 +7527,11 @@
         <v>43409</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="857">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2750,6 +2750,46 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>SNT</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>TCT</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3297,11 +3337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O89"/>
+  <dimension ref="B1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6348,12 +6388,22 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C85" s="4">
+        <v>43441</v>
+      </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -6364,12 +6414,22 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C86" s="4">
+        <v>43441</v>
+      </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -6380,12 +6440,22 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C87" s="4">
+        <v>43441</v>
+      </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -6396,12 +6466,22 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C88" s="4">
+        <v>43441</v>
+      </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -6412,12 +6492,22 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C89" s="4">
+        <v>43441</v>
+      </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -6426,6 +6516,84 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B90" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C90" s="4">
+        <v>43441</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B91" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C91" s="4">
+        <v>43441</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B92" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C92" s="4">
+        <v>43441</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:O84"/>
@@ -6445,8 +6613,8 @@
   <dimension ref="B1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="796">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2534,6 +2534,18 @@
   </si>
   <si>
     <t>CND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3084,8 +3096,8 @@
   <dimension ref="B1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:O84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5833,15 +5845,23 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>726</v>
+        <v>793</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="L74" s="1">
+        <v>6</v>
+      </c>
+      <c r="M74" s="1">
+        <v>8</v>
+      </c>
+      <c r="N74" s="1">
+        <v>7</v>
+      </c>
+      <c r="O74" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
@@ -5995,7 +6015,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>726</v>
+        <v>793</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>720</v>
@@ -6033,7 +6053,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>726</v>
+        <v>793</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>723</v>
@@ -6071,7 +6091,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>726</v>
+        <v>793</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>723</v>
@@ -6109,7 +6129,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>726</v>
+        <v>793</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>720</v>
@@ -6170,18 +6190,28 @@
         <v>777</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>726</v>
+        <v>794</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4</v>
+      </c>
+      <c r="M84" s="1">
+        <v>5</v>
+      </c>
+      <c r="N84" s="1">
+        <v>2</v>
+      </c>
+      <c r="O84" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B85" s="4">

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="798">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2123,9 +2123,6 @@
     <t>DTA</t>
   </si>
   <si>
-    <t>SNT</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -2546,6 +2543,18 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3093,11 +3102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O92"/>
+  <dimension ref="B1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3165,7 +3174,7 @@
         <v>43392</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>665</v>
@@ -3227,7 +3236,7 @@
         <v>43392</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>177</v>
@@ -3257,7 +3266,7 @@
         <v>43392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>215</v>
@@ -3289,7 +3298,7 @@
         <v>43392</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>358</v>
@@ -3353,7 +3362,7 @@
         <v>43392</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>256</v>
@@ -3385,7 +3394,7 @@
         <v>43392</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>317</v>
@@ -3417,7 +3426,7 @@
         <v>43392</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>370</v>
@@ -3461,24 +3470,24 @@
         <v>43392</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>282</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -3502,15 +3511,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -3525,24 +3534,24 @@
         <v>43392</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3566,15 +3575,15 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3589,7 +3598,7 @@
         <v>43401</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>228</v>
@@ -3598,19 +3607,19 @@
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L15" s="1">
         <v>6</v>
@@ -3633,24 +3642,24 @@
         <v>43401</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -3673,7 +3682,7 @@
         <v>43401</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>221</v>
@@ -3682,7 +3691,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
@@ -3691,10 +3700,10 @@
         <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L17" s="1">
         <v>4</v>
@@ -3717,24 +3726,24 @@
         <v>43401</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -3758,15 +3767,15 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -3781,7 +3790,7 @@
         <v>43401</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>311</v>
@@ -3790,15 +3799,15 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3813,7 +3822,7 @@
         <v>43401</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>156</v>
@@ -3822,7 +3831,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>15</v>
@@ -3831,10 +3840,10 @@
         <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
@@ -3866,15 +3875,15 @@
         <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3898,15 +3907,15 @@
         <v>19</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3930,15 +3939,15 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3962,15 +3971,15 @@
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3985,24 +3994,24 @@
         <v>43401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>364</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L26" s="1">
         <v>7</v>
@@ -4034,15 +4043,15 @@
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -4057,24 +4066,24 @@
         <v>43401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L28" s="1">
         <v>8</v>
@@ -4097,7 +4106,7 @@
         <v>43401</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>611</v>
@@ -4106,19 +4115,19 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L29" s="1">
         <v>7</v>
@@ -4141,24 +4150,24 @@
         <v>43406</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L30" s="1">
         <v>4</v>
@@ -4181,24 +4190,24 @@
         <v>43406</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>735</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -4221,24 +4230,24 @@
         <v>43406</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
@@ -4261,24 +4270,24 @@
         <v>43406</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L33" s="1">
         <v>7</v>
@@ -4301,21 +4310,21 @@
         <v>43406</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4331,24 +4340,24 @@
         <v>43406</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L35" s="1">
         <v>2</v>
@@ -4371,24 +4380,24 @@
         <v>43406</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>638</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -4411,24 +4420,24 @@
         <v>43406</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L37" s="1">
         <v>6</v>
@@ -4451,24 +4460,24 @@
         <v>43406</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L38" s="1">
         <v>3</v>
@@ -4491,24 +4500,24 @@
         <v>43406</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>751</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L39" s="1">
         <v>7</v>
@@ -4531,21 +4540,21 @@
         <v>43406</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4561,7 +4570,7 @@
         <v>43406</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>406</v>
@@ -4570,15 +4579,15 @@
         <v>28</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L41" s="1">
         <v>5</v>
@@ -4601,7 +4610,7 @@
         <v>43406</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>644</v>
@@ -4610,15 +4619,15 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L42" s="1">
         <v>2</v>
@@ -4641,24 +4650,24 @@
         <v>43413</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>466</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -4681,24 +4690,24 @@
         <v>43413</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>757</v>
-      </c>
       <c r="F44" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L44" s="1">
         <v>4</v>
@@ -4721,24 +4730,24 @@
         <v>43413</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L45" s="1">
         <v>7</v>
@@ -4761,24 +4770,24 @@
         <v>43413</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L46" s="1">
         <v>7</v>
@@ -4801,24 +4810,24 @@
         <v>43413</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>330</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L47" s="1">
         <v>6</v>
@@ -4841,28 +4850,28 @@
         <v>43413</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>763</v>
-      </c>
       <c r="F48" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L48" s="1">
         <v>6</v>
@@ -4885,24 +4894,24 @@
         <v>43413</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L49" s="1">
         <v>5</v>
@@ -4925,24 +4934,24 @@
         <v>43413</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L50" s="1">
         <v>2</v>
@@ -4965,24 +4974,24 @@
         <v>43413</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>471</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L51" s="1">
         <v>4</v>
@@ -5005,24 +5014,24 @@
         <v>43413</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L52" s="1">
         <v>2</v>
@@ -5045,24 +5054,24 @@
         <v>43413</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>262</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L53" s="1">
         <v>3</v>
@@ -5085,24 +5094,24 @@
         <v>43413</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
@@ -5125,24 +5134,24 @@
         <v>43413</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>774</v>
-      </c>
       <c r="F55" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>707</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -5169,18 +5178,18 @@
         <v>670</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="L56" s="1">
         <v>4</v>
@@ -5204,21 +5213,21 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>776</v>
-      </c>
       <c r="G57" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L57" s="1">
         <v>4</v>
@@ -5245,18 +5254,18 @@
         <v>673</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L58" s="1">
         <v>5</v>
@@ -5283,18 +5292,18 @@
         <v>674</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L59" s="1">
         <v>6</v>
@@ -5317,24 +5326,24 @@
         <v>43420</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L60" s="1">
         <v>6</v>
@@ -5361,18 +5370,18 @@
         <v>671</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="K61" s="14" t="s">
         <v>719</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>720</v>
       </c>
       <c r="L61" s="14">
         <v>6</v>
@@ -5399,18 +5408,18 @@
         <v>672</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L62" s="1">
         <v>5</v>
@@ -5437,18 +5446,18 @@
         <v>668</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L63" s="1">
         <v>5</v>
@@ -5475,18 +5484,18 @@
         <v>669</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>720</v>
       </c>
       <c r="L64" s="5">
         <v>6</v>
@@ -5513,18 +5522,18 @@
         <v>667</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L65" s="1">
         <v>4</v>
@@ -5547,24 +5556,24 @@
         <v>43420</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>781</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
@@ -5588,21 +5597,21 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L67" s="1">
         <v>3</v>
@@ -5626,21 +5635,21 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L68" s="1">
         <v>7</v>
@@ -5664,18 +5673,18 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -5692,21 +5701,21 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L70" s="1">
         <v>6</v>
@@ -5730,21 +5739,21 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="L71" s="1">
         <v>6</v>
@@ -5768,21 +5777,21 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L72" s="1">
         <v>3</v>
@@ -5806,18 +5815,18 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5834,21 +5843,21 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L74" s="1">
         <v>6</v>
@@ -5872,18 +5881,18 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -5903,15 +5912,15 @@
         <v>678</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -5931,18 +5940,18 @@
         <v>679</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L77" s="1">
         <v>7</v>
@@ -5969,18 +5978,18 @@
         <v>680</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L78" s="1">
         <v>2</v>
@@ -6007,18 +6016,18 @@
         <v>681</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L79" s="1">
         <v>4</v>
@@ -6045,18 +6054,18 @@
         <v>682</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L80" s="1">
         <v>6</v>
@@ -6083,18 +6092,18 @@
         <v>683</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L81" s="1">
         <v>4</v>
@@ -6118,21 +6127,21 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L82" s="1">
         <v>5</v>
@@ -6159,15 +6168,15 @@
         <v>684</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -6187,18 +6196,18 @@
         <v>685</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L84" s="1">
         <v>4</v>
@@ -6225,10 +6234,10 @@
         <v>686</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6251,10 +6260,10 @@
         <v>687</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6274,13 +6283,13 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>688</v>
+        <v>795</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6300,13 +6309,13 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6326,13 +6335,13 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6352,13 +6361,13 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6378,13 +6387,13 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6404,13 +6413,13 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6420,6 +6429,34 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B93" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C93" s="4">
+        <v>43441</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:O92"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="801">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2534,10 +2534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2555,6 +2551,22 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3104,9 +3116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5821,18 +5833,28 @@
         <v>776</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="L73" s="1">
+        <v>6</v>
+      </c>
+      <c r="M73" s="1">
+        <v>2</v>
+      </c>
+      <c r="N73" s="1">
+        <v>3</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
@@ -5854,7 +5876,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>789</v>
@@ -6024,7 +6046,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>719</v>
@@ -6062,7 +6084,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>722</v>
@@ -6100,7 +6122,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>722</v>
@@ -6138,7 +6160,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>719</v>
@@ -6171,18 +6193,28 @@
         <v>776</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
+      <c r="K83" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="L83" s="1">
+        <v>3</v>
+      </c>
+      <c r="M83" s="1">
+        <v>6</v>
+      </c>
+      <c r="N83" s="1">
+        <v>4</v>
+      </c>
+      <c r="O83" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
@@ -6199,7 +6231,7 @@
         <v>776</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6207,7 +6239,7 @@
         <v>725</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L84" s="1">
         <v>4</v>
@@ -6241,7 +6273,9 @@
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -6263,16 +6297,28 @@
         <v>694</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="L86" s="1">
+        <v>6</v>
+      </c>
+      <c r="M86" s="1">
+        <v>5</v>
+      </c>
+      <c r="N86" s="1">
+        <v>3</v>
+      </c>
+      <c r="O86" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
@@ -6283,22 +6329,34 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>694</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="L87" s="1">
+        <v>6</v>
+      </c>
+      <c r="M87" s="1">
+        <v>6</v>
+      </c>
+      <c r="N87" s="1">
+        <v>5</v>
+      </c>
+      <c r="O87" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
@@ -6315,16 +6373,28 @@
         <v>695</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
+      <c r="J88" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="L88" s="1">
+        <v>5</v>
+      </c>
+      <c r="M88" s="1">
+        <v>6</v>
+      </c>
+      <c r="N88" s="1">
+        <v>5</v>
+      </c>
+      <c r="O88" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
@@ -6341,16 +6411,28 @@
         <v>695</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="L89" s="1">
+        <v>6</v>
+      </c>
+      <c r="M89" s="1">
+        <v>5</v>
+      </c>
+      <c r="N89" s="1">
+        <v>3</v>
+      </c>
+      <c r="O89" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
@@ -6367,16 +6449,28 @@
         <v>16</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
+      <c r="J90" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="L90" s="1">
+        <v>6</v>
+      </c>
+      <c r="M90" s="1">
+        <v>6</v>
+      </c>
+      <c r="N90" s="1">
+        <v>4</v>
+      </c>
+      <c r="O90" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
@@ -6397,7 +6491,9 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -6419,16 +6515,28 @@
         <v>16</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
+      <c r="J92" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="L92" s="1">
+        <v>5</v>
+      </c>
+      <c r="M92" s="1">
+        <v>3</v>
+      </c>
+      <c r="N92" s="1">
+        <v>3</v>
+      </c>
+      <c r="O92" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
@@ -6439,18 +6547,18 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="803">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2567,6 +2567,14 @@
   </si>
   <si>
     <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3114,11 +3122,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3178,7 +3187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -3208,7 +3217,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -3240,7 +3249,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3270,7 +3279,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3302,7 +3311,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3334,7 +3343,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3366,7 +3375,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3398,7 +3407,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3430,7 +3439,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3474,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3506,7 +3515,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3538,7 +3547,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3570,7 +3579,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3602,7 +3611,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3730,7 +3739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3762,7 +3771,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3794,7 +3803,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -3826,7 +3835,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -3902,7 +3911,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -3934,7 +3943,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -3966,7 +3975,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -3998,7 +4007,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -4070,7 +4079,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -4154,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4194,7 +4203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -4234,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4274,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -4314,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4344,7 +4353,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -4384,7 +4393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4424,7 +4433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -4504,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4544,7 +4553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4574,7 +4583,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>43410</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4774,7 +4783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43410</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>43410</v>
       </c>
@@ -4898,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -4938,7 +4947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
@@ -4978,7 +4987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -5018,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5138,7 +5147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -5178,7 +5187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>43416</v>
       </c>
@@ -5216,7 +5225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>43416</v>
       </c>
@@ -5274,7 +5283,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>723</v>
@@ -5292,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>43416</v>
       </c>
@@ -5330,7 +5339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>43416</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="13">
         <v>43416</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>43416</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>43416</v>
       </c>
@@ -5484,7 +5493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="11">
         <v>43416</v>
       </c>
@@ -5522,7 +5531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>43416</v>
       </c>
@@ -5560,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>43416</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>43416</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>43423</v>
       </c>
@@ -5676,7 +5685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>43423</v>
       </c>
@@ -5724,7 +5733,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>719</v>
@@ -5742,7 +5751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>43423</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>43423</v>
       </c>
@@ -5818,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>43423</v>
       </c>
@@ -5856,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>43423</v>
       </c>
@@ -5909,20 +5918,30 @@
         <v>776</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
+        <v>802</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="L75" s="1">
+        <v>7</v>
+      </c>
+      <c r="M75" s="1">
+        <v>5</v>
+      </c>
+      <c r="N75" s="1">
+        <v>4</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>43423</v>
       </c>
@@ -5950,7 +5969,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>43423</v>
       </c>
@@ -5988,7 +6007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
         <v>43430</v>
       </c>
@@ -6026,7 +6045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
         <v>43430</v>
       </c>
@@ -6064,7 +6083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
         <v>43430</v>
       </c>
@@ -6102,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
         <v>43430</v>
       </c>
@@ -6140,7 +6159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
         <v>43430</v>
       </c>
@@ -6198,7 +6217,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>797</v>
@@ -6236,7 +6255,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>793</v>
@@ -6254,7 +6273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
         <v>43437</v>
       </c>
@@ -6282,7 +6301,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
         <v>43437</v>
       </c>
@@ -6320,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
         <v>43437</v>
       </c>
@@ -6358,7 +6377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
         <v>43437</v>
       </c>
@@ -6396,7 +6415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
         <v>43437</v>
       </c>
@@ -6434,7 +6453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
         <v>43437</v>
       </c>
@@ -6472,7 +6491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
         <v>43437</v>
       </c>
@@ -6500,7 +6519,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
         <v>43437</v>
       </c>
@@ -6538,7 +6557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
         <v>43437</v>
       </c>
@@ -6567,7 +6586,13 @@
       <c r="O93" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O92"/>
+  <autoFilter ref="B1:O93">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="I"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">短评!$B$1:$O$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">长报告!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="816">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2575,6 +2575,58 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOSDAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WICC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3122,12 +3174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:O93"/>
+  <dimension ref="B1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3187,7 +3238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>43388</v>
       </c>
@@ -3217,7 +3268,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43388</v>
       </c>
@@ -3249,7 +3300,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43388</v>
       </c>
@@ -3279,7 +3330,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43388</v>
       </c>
@@ -3311,7 +3362,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43388</v>
       </c>
@@ -3343,7 +3394,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43388</v>
       </c>
@@ -3375,7 +3426,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43388</v>
       </c>
@@ -3407,7 +3458,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43388</v>
       </c>
@@ -3439,7 +3490,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43388</v>
       </c>
@@ -3483,7 +3534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43388</v>
       </c>
@@ -3515,7 +3566,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43388</v>
       </c>
@@ -3547,7 +3598,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43388</v>
       </c>
@@ -3579,7 +3630,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43395</v>
       </c>
@@ -3611,7 +3662,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43395</v>
       </c>
@@ -3655,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43395</v>
       </c>
@@ -3695,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43395</v>
       </c>
@@ -3739,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43395</v>
       </c>
@@ -3771,7 +3822,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43395</v>
       </c>
@@ -3803,7 +3854,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -3835,7 +3886,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43395</v>
       </c>
@@ -3879,7 +3930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43395</v>
       </c>
@@ -3911,7 +3962,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>43395</v>
       </c>
@@ -3943,7 +3994,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>43395</v>
       </c>
@@ -3975,7 +4026,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>43395</v>
       </c>
@@ -4007,7 +4058,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>43395</v>
       </c>
@@ -4047,7 +4098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>43395</v>
       </c>
@@ -4079,7 +4130,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>43395</v>
       </c>
@@ -4119,7 +4170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>43395</v>
       </c>
@@ -4163,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>43402</v>
       </c>
@@ -4203,7 +4254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>43402</v>
       </c>
@@ -4243,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4283,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>43402</v>
       </c>
@@ -4323,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>43402</v>
       </c>
@@ -4353,7 +4404,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>43402</v>
       </c>
@@ -4393,7 +4444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>43402</v>
       </c>
@@ -4433,7 +4484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>43402</v>
       </c>
@@ -4473,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>43402</v>
       </c>
@@ -4513,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4553,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>43402</v>
       </c>
@@ -4583,7 +4634,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>43402</v>
       </c>
@@ -4623,7 +4674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>43402</v>
       </c>
@@ -4663,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>43410</v>
       </c>
@@ -4703,7 +4754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>43410</v>
       </c>
@@ -4743,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>43410</v>
       </c>
@@ -4783,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>43410</v>
       </c>
@@ -4823,7 +4874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43410</v>
       </c>
@@ -4863,7 +4914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>43410</v>
       </c>
@@ -4907,7 +4958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>43410</v>
       </c>
@@ -4947,7 +4998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>43410</v>
       </c>
@@ -4987,7 +5038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>43410</v>
       </c>
@@ -5027,7 +5078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>43395</v>
       </c>
@@ -5067,7 +5118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43410</v>
       </c>
@@ -5107,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>43388</v>
       </c>
@@ -5147,7 +5198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>43410</v>
       </c>
@@ -5187,7 +5238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>43416</v>
       </c>
@@ -5225,7 +5276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>43416</v>
       </c>
@@ -5301,7 +5352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>43416</v>
       </c>
@@ -5339,7 +5390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>43416</v>
       </c>
@@ -5379,7 +5430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="13">
         <v>43416</v>
       </c>
@@ -5417,7 +5468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>43416</v>
       </c>
@@ -5455,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>43416</v>
       </c>
@@ -5493,7 +5544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="11">
         <v>43416</v>
       </c>
@@ -5531,7 +5582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>43416</v>
       </c>
@@ -5569,7 +5620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>43416</v>
       </c>
@@ -5609,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>43416</v>
       </c>
@@ -5647,7 +5698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>43423</v>
       </c>
@@ -5685,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>43423</v>
       </c>
@@ -5751,7 +5802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>43423</v>
       </c>
@@ -5789,7 +5840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>43423</v>
       </c>
@@ -5827,7 +5878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>43423</v>
       </c>
@@ -5865,7 +5916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>43423</v>
       </c>
@@ -5941,7 +5992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>43423</v>
       </c>
@@ -5969,7 +6020,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>43423</v>
       </c>
@@ -6007,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
         <v>43430</v>
       </c>
@@ -6045,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
         <v>43430</v>
       </c>
@@ -6083,7 +6134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
         <v>43430</v>
       </c>
@@ -6121,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
         <v>43430</v>
       </c>
@@ -6159,7 +6210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
         <v>43430</v>
       </c>
@@ -6273,7 +6324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
         <v>43437</v>
       </c>
@@ -6301,7 +6352,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
         <v>43437</v>
       </c>
@@ -6339,7 +6390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
         <v>43437</v>
       </c>
@@ -6377,7 +6428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
         <v>43437</v>
       </c>
@@ -6415,7 +6466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
         <v>43437</v>
       </c>
@@ -6453,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
         <v>43437</v>
       </c>
@@ -6491,7 +6542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
         <v>43437</v>
       </c>
@@ -6519,7 +6570,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
         <v>43437</v>
       </c>
@@ -6557,7 +6608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
         <v>43437</v>
       </c>
@@ -6585,14 +6636,232 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B94" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C94" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B95" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C95" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B96" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C96" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B97" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C97" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B98" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C98" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B99" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C99" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B100" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C100" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B101" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C101" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:O93">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="I"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:O101"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6610,7 +6879,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="856">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2783,6 +2783,14 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3336,8 +3344,8 @@
   <dimension ref="B1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6166,18 +6174,28 @@
         <v>773</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>720</v>
+        <v>854</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="L76" s="1">
+        <v>6</v>
+      </c>
+      <c r="M76" s="1">
+        <v>6</v>
+      </c>
+      <c r="N76" s="1">
+        <v>7</v>
+      </c>
+      <c r="O76" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B77" s="4">

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="9420"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="短评" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="858">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2791,6 +2791,14 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3343,9 +3351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7054,9 +7062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7247,7 +7255,9 @@
       <c r="C11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>59</v>
       </c>
@@ -7732,7 +7742,9 @@
       <c r="C40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>857</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>59</v>
       </c>

--- a/mnt/评级台账.xlsx
+++ b/mnt/评级台账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="短评" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="859">
   <si>
     <t>ZCoin</t>
   </si>
@@ -2035,10 +2035,6 @@
     <t>0x46492473755e8df960f8034877f61732d718ce96</t>
   </si>
   <si>
-    <t>GBTYE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HPB</t>
   </si>
   <si>
@@ -2102,36 +2098,684 @@
     <t>BLZ</t>
   </si>
   <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>TCT</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TenX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skycoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartCash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horizen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centrality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENNZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scry.info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groestlcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubiq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigixDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digitex Futures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGTX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOTchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crypto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NucleusVision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polymath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zipper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BridgeCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRYPTO20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eidoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iconomi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonaCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novacoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRootNetwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veritaseum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigitalNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eternal Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-performance Blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATRIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOSDAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congcong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAVES</t>
+  </si>
+  <si>
+    <t>ZRX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTXC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XMR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NANO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WICC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZCASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kcash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PundiX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BAT</t>
-  </si>
-  <si>
-    <t>DTA</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>KIN</t>
-  </si>
-  <si>
-    <t>SUB</t>
-  </si>
-  <si>
-    <t>TCT</t>
-  </si>
-  <si>
-    <t>CPT</t>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LBC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2139,666 +2783,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ByteballBytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TenX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIVX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peercoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skycoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmartCash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TokenPay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vertcoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Horizen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centrality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CENNZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scry.info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emercoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Groestlcoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubiq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enigma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigixDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DGD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digitex Futures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DGTX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Genesis Vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GVT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOTchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crypto.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NucleusVision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polymath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POLY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmartMesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zipper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BridgeCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRYPTO20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dropil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eidoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iconomi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonaCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>novacoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pillar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OneRootNetwork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Veritaseum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigitalNote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eternal Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-performance Blockchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATRIX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XYO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EOSDAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WICC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congcong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longboou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张朕铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAVES</t>
-  </si>
-  <si>
-    <t>ZRX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTXC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GXS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XMR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NANO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STEEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XTZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WICC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZCASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Achian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARDOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kcash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PundiX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKR</t>
+    <t xml:space="preserve">GBYTE </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2867,7 +2872,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2877,6 +2882,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2976,7 +2987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3028,6 +3039,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -3349,11 +3369,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:O101"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3413,35 +3434,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="4">
+    <row r="2" spans="2:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="18">
         <v>43388</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="18">
         <v>43392</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="K2" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
@@ -3475,35 +3498,35 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="4">
+    <row r="4" spans="2:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="18">
         <v>43388</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="18">
         <v>43392</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
@@ -3513,7 +3536,7 @@
         <v>43392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>210</v>
@@ -3545,7 +3568,7 @@
         <v>43392</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>353</v>
@@ -3569,37 +3592,37 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
+    <row r="7" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="11">
         <v>43388</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="11">
         <v>43392</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
@@ -3609,7 +3632,7 @@
         <v>43392</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>251</v>
@@ -3641,7 +3664,7 @@
         <v>43392</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>312</v>
@@ -3673,7 +3696,7 @@
         <v>43392</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>365</v>
@@ -3717,24 +3740,24 @@
         <v>43392</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>277</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -3758,15 +3781,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -3781,24 +3804,24 @@
         <v>43392</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3822,15 +3845,15 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3845,7 +3868,7 @@
         <v>43401</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>223</v>
@@ -3854,19 +3877,19 @@
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L15" s="1">
         <v>6</v>
@@ -3889,24 +3912,24 @@
         <v>43401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -3929,7 +3952,7 @@
         <v>43401</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>216</v>
@@ -3938,7 +3961,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
@@ -3947,10 +3970,10 @@
         <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L17" s="1">
         <v>4</v>
@@ -3973,24 +3996,24 @@
         <v>43401</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4014,22 +4037,22 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43395</v>
       </c>
@@ -4037,7 +4060,7 @@
         <v>43401</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>306</v>
@@ -4046,15 +4069,15 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4069,7 +4092,7 @@
         <v>43401</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>151</v>
@@ -4078,7 +4101,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>15</v>
@@ -4087,10 +4110,10 @@
         <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
@@ -4122,15 +4145,15 @@
         <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4154,15 +4177,15 @@
         <v>19</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -4186,15 +4209,15 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -4218,15 +4241,15 @@
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -4241,24 +4264,24 @@
         <v>43401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L26" s="1">
         <v>7</v>
@@ -4290,15 +4313,15 @@
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -4313,24 +4336,24 @@
         <v>43401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L28" s="1">
         <v>8</v>
@@ -4353,7 +4376,7 @@
         <v>43401</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>606</v>
@@ -4362,19 +4385,19 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L29" s="1">
         <v>7</v>
@@ -4397,24 +4420,24 @@
         <v>43406</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L30" s="1">
         <v>4</v>
@@ -4437,24 +4460,24 @@
         <v>43406</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -4469,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>43402</v>
       </c>
@@ -4477,24 +4500,24 @@
         <v>43406</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
@@ -4517,24 +4540,24 @@
         <v>43406</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L33" s="1">
         <v>7</v>
@@ -4556,28 +4579,38 @@
       <c r="C34" s="4">
         <v>43406</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>733</v>
+      <c r="D34" s="9" t="s">
+        <v>729</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+        <v>709</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>4</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
@@ -4586,37 +4619,37 @@
       <c r="C35" s="4">
         <v>43406</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>736</v>
+      <c r="D35" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>737</v>
+        <v>633</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>28</v>
+        <v>732</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="L35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
@@ -4627,33 +4660,33 @@
         <v>43406</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>633</v>
+        <v>734</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O36" s="1">
         <v>5</v>
@@ -4667,33 +4700,33 @@
         <v>43406</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>725</v>
+        <v>28</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="L37" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M37" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N37" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O37" s="1">
         <v>5</v>
@@ -4707,39 +4740,39 @@
         <v>43406</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>732</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>714</v>
       </c>
       <c r="L38" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M38" s="1">
+        <v>6</v>
+      </c>
+      <c r="N38" s="1">
+        <v>5</v>
+      </c>
+      <c r="O38" s="1">
         <v>4</v>
       </c>
-      <c r="N38" s="1">
-        <v>3</v>
-      </c>
-      <c r="O38" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>43402</v>
       </c>
@@ -4747,37 +4780,27 @@
         <v>43406</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>745</v>
+        <v>165</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="L39" s="1">
-        <v>7</v>
-      </c>
-      <c r="M39" s="1">
-        <v>6</v>
-      </c>
-      <c r="N39" s="1">
-        <v>5</v>
-      </c>
-      <c r="O39" s="1">
-        <v>4</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
@@ -4787,27 +4810,37 @@
         <v>43406</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>725</v>
+        <v>28</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+        <v>697</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>5</v>
+      </c>
+      <c r="N40" s="1">
+        <v>4</v>
+      </c>
+      <c r="O40" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
@@ -4817,76 +4850,76 @@
         <v>43406</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>401</v>
+        <v>639</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L41" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1">
         <v>4</v>
-      </c>
-      <c r="O41" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
-        <v>43402</v>
-      </c>
-      <c r="C42" s="4">
-        <v>43406</v>
+        <v>43410</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43413</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>639</v>
+        <v>461</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>723</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
@@ -4897,36 +4930,36 @@
         <v>43413</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>461</v>
+        <v>744</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M43" s="1">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1">
+        <v>7</v>
+      </c>
+      <c r="O43" s="1">
         <v>4</v>
-      </c>
-      <c r="N43" s="1">
-        <v>4</v>
-      </c>
-      <c r="O43" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
@@ -4937,36 +4970,36 @@
         <v>43413</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>751</v>
+        <v>337</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L44" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M44" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N44" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
@@ -4977,36 +5010,36 @@
         <v>43413</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L45" s="1">
         <v>7</v>
       </c>
       <c r="M45" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N45" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
@@ -5017,36 +5050,36 @@
         <v>43413</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L46" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M46" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N46" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
@@ -5057,36 +5090,40 @@
         <v>43413</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>325</v>
+        <v>750</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+        <v>697</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L47" s="1">
         <v>6</v>
       </c>
       <c r="M47" s="1">
+        <v>8</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="O47" s="1">
         <v>6</v>
-      </c>
-      <c r="N47" s="1">
-        <v>4</v>
-      </c>
-      <c r="O47" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
@@ -5096,41 +5133,37 @@
       <c r="C48" s="3">
         <v>43413</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>756</v>
+      <c r="D48" s="5" t="s">
+        <v>751</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>709</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>703</v>
+        <v>753</v>
       </c>
       <c r="L48" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M48" s="1">
         <v>8</v>
       </c>
       <c r="N48" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O48" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
@@ -5141,36 +5174,36 @@
         <v>43413</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>701</v>
+        <v>474</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>760</v>
+        <v>702</v>
       </c>
       <c r="L49" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M49" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N49" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O49" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
@@ -5180,234 +5213,232 @@
       <c r="C50" s="3">
         <v>43413</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>761</v>
+      <c r="D50" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>754</v>
+        <v>466</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="L50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O50" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
-        <v>43410</v>
-      </c>
-      <c r="C51" s="3">
+        <v>43395</v>
+      </c>
+      <c r="C51" s="4">
         <v>43413</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>466</v>
+        <v>757</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>727</v>
+        <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>702</v>
       </c>
       <c r="L51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N51" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O51" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
-        <v>43395</v>
-      </c>
-      <c r="C52" s="4">
+        <v>43410</v>
+      </c>
+      <c r="C52" s="3">
         <v>43413</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>764</v>
+        <v>257</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>705</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L52" s="1">
+        <v>3</v>
+      </c>
+      <c r="M52" s="1">
         <v>2</v>
-      </c>
-      <c r="M52" s="1">
-        <v>1</v>
       </c>
       <c r="N52" s="1">
         <v>2</v>
       </c>
       <c r="O52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
-        <v>43410</v>
-      </c>
-      <c r="C53" s="3">
+        <v>43388</v>
+      </c>
+      <c r="C53" s="4">
         <v>43413</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
         <v>3</v>
       </c>
-      <c r="M53" s="1">
-        <v>2</v>
-      </c>
       <c r="N53" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O53" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
-        <v>43388</v>
-      </c>
-      <c r="C54" s="4">
+        <v>43410</v>
+      </c>
+      <c r="C54" s="3">
         <v>43413</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>766</v>
+      <c r="D54" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>244</v>
+        <v>761</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>697</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54" s="1">
+        <v>6</v>
+      </c>
+      <c r="O54" s="1">
         <v>5</v>
-      </c>
-      <c r="O54" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
-        <v>43410</v>
-      </c>
-      <c r="C55" s="3">
-        <v>43413</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>767</v>
-      </c>
+        <v>43416</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>700</v>
+        <v>664</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>747</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L55" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M55" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N55" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O55" s="1">
         <v>5</v>
@@ -5422,21 +5453,21 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>665</v>
+        <v>762</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="L56" s="1">
         <v>4</v>
@@ -5445,10 +5476,10 @@
         <v>5</v>
       </c>
       <c r="N56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
@@ -5460,30 +5491,30 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>713</v>
+        <v>790</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>714</v>
       </c>
       <c r="L57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M57" s="1">
         <v>5</v>
       </c>
       <c r="N57" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O57" s="1">
         <v>4</v>
@@ -5501,30 +5532,30 @@
         <v>668</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>797</v>
+        <v>709</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="L58" s="1">
+        <v>6</v>
+      </c>
+      <c r="M58" s="1">
+        <v>6</v>
+      </c>
+      <c r="N58" s="1">
         <v>5</v>
       </c>
-      <c r="M58" s="1">
+      <c r="O58" s="1">
         <v>5</v>
-      </c>
-      <c r="N58" s="1">
-        <v>6</v>
-      </c>
-      <c r="O58" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
@@ -5534,20 +5565,22 @@
       <c r="C59" s="4">
         <v>43420</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>725</v>
+        <v>766</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>714</v>
@@ -5556,90 +5589,88 @@
         <v>6</v>
       </c>
       <c r="M59" s="1">
+        <v>5</v>
+      </c>
+      <c r="N59" s="1">
         <v>6</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="13">
+        <v>43416</v>
+      </c>
+      <c r="C60" s="13">
+        <v>43420</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="L60" s="14">
+        <v>6</v>
+      </c>
+      <c r="M60" s="14">
+        <v>3</v>
+      </c>
+      <c r="N60" s="14">
+        <v>3</v>
+      </c>
+      <c r="O60" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B61" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L61" s="1">
         <v>5</v>
       </c>
-      <c r="O59" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B60" s="4">
-        <v>43416</v>
-      </c>
-      <c r="C60" s="4">
-        <v>43420</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="L60" s="1">
+      <c r="M61" s="1">
+        <v>4</v>
+      </c>
+      <c r="N61" s="1">
         <v>6</v>
       </c>
-      <c r="M60" s="1">
-        <v>5</v>
-      </c>
-      <c r="N60" s="1">
-        <v>6</v>
-      </c>
-      <c r="O60" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="13">
-        <v>43416</v>
-      </c>
-      <c r="C61" s="13">
-        <v>43420</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="L61" s="14">
-        <v>6</v>
-      </c>
-      <c r="M61" s="14">
-        <v>3</v>
-      </c>
-      <c r="N61" s="14">
-        <v>3</v>
-      </c>
-      <c r="O61" s="14">
+      <c r="O61" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5652,109 +5683,109 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L62" s="1">
         <v>5</v>
       </c>
       <c r="M62" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N62" s="1">
         <v>6</v>
       </c>
       <c r="O62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="11">
+        <v>43416</v>
+      </c>
+      <c r="C63" s="11">
+        <v>43420</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="L63" s="5">
+        <v>6</v>
+      </c>
+      <c r="M63" s="5">
+        <v>5</v>
+      </c>
+      <c r="N63" s="5">
+        <v>4</v>
+      </c>
+      <c r="O63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B64" s="4">
+        <v>43416</v>
+      </c>
+      <c r="C64" s="4">
+        <v>43420</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L64" s="1">
+        <v>4</v>
+      </c>
+      <c r="M64" s="1">
+        <v>5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>4</v>
+      </c>
+      <c r="O64" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63" s="4">
-        <v>43416</v>
-      </c>
-      <c r="C63" s="4">
-        <v>43420</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="L63" s="1">
-        <v>5</v>
-      </c>
-      <c r="M63" s="1">
-        <v>6</v>
-      </c>
-      <c r="N63" s="1">
-        <v>6</v>
-      </c>
-      <c r="O63" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="11">
-        <v>43416</v>
-      </c>
-      <c r="C64" s="11">
-        <v>43420</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="L64" s="5">
-        <v>6</v>
-      </c>
-      <c r="M64" s="5">
-        <v>5</v>
-      </c>
-      <c r="N64" s="5">
-        <v>4</v>
-      </c>
-      <c r="O64" s="5">
-        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
@@ -5764,32 +5795,34 @@
       <c r="C65" s="4">
         <v>43420</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>662</v>
+      <c r="D65" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>768</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>714</v>
       </c>
       <c r="L65" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N65" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O65" s="1">
         <v>3</v>
@@ -5802,78 +5835,76 @@
       <c r="C66" s="4">
         <v>43420</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>774</v>
-      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
       </c>
       <c r="M66" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N66" s="1">
         <v>6</v>
       </c>
       <c r="O66" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="C67" s="4">
-        <v>43420</v>
+        <v>43427</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="5" t="s">
-        <v>776</v>
+      <c r="E67" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>713</v>
+        <v>721</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>714</v>
       </c>
       <c r="L67" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M67" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N67" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O67" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>43423</v>
       </c>
@@ -5882,34 +5913,24 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="L68" s="1">
-        <v>7</v>
-      </c>
-      <c r="M68" s="1">
-        <v>6</v>
-      </c>
-      <c r="N68" s="1">
-        <v>5</v>
-      </c>
-      <c r="O68" s="1">
-        <v>5</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
@@ -5920,24 +5941,34 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>725</v>
+        <v>763</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
+        <v>790</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L69" s="1">
+        <v>6</v>
+      </c>
+      <c r="M69" s="1">
+        <v>5</v>
+      </c>
+      <c r="N69" s="1">
+        <v>5</v>
+      </c>
+      <c r="O69" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
@@ -5948,27 +5979,27 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>797</v>
+        <v>709</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L70" s="1">
         <v>6</v>
       </c>
       <c r="M70" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N70" s="1">
         <v>5</v>
@@ -5986,33 +6017,33 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>714</v>
       </c>
       <c r="L71" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M71" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N71" s="1">
+        <v>7</v>
+      </c>
+      <c r="O71" s="1">
         <v>5</v>
-      </c>
-      <c r="O71" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.15">
@@ -6024,33 +6055,33 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>713</v>
+        <v>786</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>713</v>
+        <v>842</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>718</v>
+        <v>787</v>
       </c>
       <c r="L72" s="1">
+        <v>6</v>
+      </c>
+      <c r="M72" s="1">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1">
         <v>3</v>
       </c>
-      <c r="M72" s="1">
-        <v>7</v>
-      </c>
-      <c r="N72" s="1">
-        <v>7</v>
-      </c>
       <c r="O72" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.15">
@@ -6062,33 +6093,33 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>853</v>
+        <v>786</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="L73" s="1">
         <v>6</v>
       </c>
       <c r="M73" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N73" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O73" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
@@ -6100,71 +6131,71 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>713</v>
+        <v>790</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="L74" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M74" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N74" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O74" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>43423</v>
       </c>
       <c r="C75" s="4">
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>771</v>
+        <v>672</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>797</v>
+        <v>843</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>797</v>
+        <v>716</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
       <c r="L75" s="1">
+        <v>6</v>
+      </c>
+      <c r="M75" s="1">
+        <v>6</v>
+      </c>
+      <c r="N75" s="1">
         <v>7</v>
       </c>
-      <c r="M75" s="1">
-        <v>5</v>
-      </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>4</v>
-      </c>
-      <c r="O75" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.15">
@@ -6179,35 +6210,35 @@
         <v>673</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>773</v>
+        <v>721</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>854</v>
+        <v>709</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>720</v>
+        <v>842</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>855</v>
+        <v>710</v>
       </c>
       <c r="L76" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M76" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N76" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O76" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="C77" s="4">
         <v>43434</v>
@@ -6217,30 +6248,30 @@
         <v>674</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>853</v>
+        <v>716</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L77" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M77" s="1">
         <v>5</v>
       </c>
       <c r="N77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
         <v>5</v>
-      </c>
-      <c r="O77" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.15">
@@ -6255,30 +6286,30 @@
         <v>675</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>720</v>
+        <v>786</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M78" s="1">
         <v>5</v>
       </c>
       <c r="N78" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O78" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.15">
@@ -6293,30 +6324,30 @@
         <v>676</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L79" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M79" s="1">
         <v>5</v>
       </c>
       <c r="N79" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O79" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.15">
@@ -6331,30 +6362,30 @@
         <v>677</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L80" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M80" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.15">
@@ -6366,33 +6397,33 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>678</v>
+        <v>779</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="L81" s="1">
+        <v>5</v>
+      </c>
+      <c r="M81" s="1">
         <v>4</v>
       </c>
-      <c r="M81" s="1">
-        <v>1</v>
-      </c>
       <c r="N81" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O81" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.15">
@@ -6404,33 +6435,33 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>714</v>
+        <v>785</v>
       </c>
       <c r="L82" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M82" s="1">
+        <v>6</v>
+      </c>
+      <c r="N82" s="1">
         <v>4</v>
       </c>
-      <c r="N82" s="1">
-        <v>5</v>
-      </c>
       <c r="O82" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.15">
@@ -6445,68 +6476,68 @@
         <v>679</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="L83" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N83" s="1">
+        <v>2</v>
+      </c>
+      <c r="O83" s="1">
         <v>4</v>
-      </c>
-      <c r="O83" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
-        <v>43430</v>
+        <v>43437</v>
       </c>
       <c r="C84" s="4">
-        <v>43434</v>
+        <v>43441</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
         <v>680</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>771</v>
+        <v>686</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>797</v>
+        <v>842</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L84" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M84" s="1">
         <v>5</v>
       </c>
       <c r="N84" s="1">
+        <v>3</v>
+      </c>
+      <c r="O84" s="1">
         <v>2</v>
-      </c>
-      <c r="O84" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.15">
@@ -6518,26 +6549,36 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>691</v>
+        <v>786</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
+        <v>842</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="L85" s="1">
+        <v>6</v>
+      </c>
+      <c r="M85" s="1">
+        <v>6</v>
+      </c>
+      <c r="N85" s="1">
+        <v>5</v>
+      </c>
+      <c r="O85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
         <v>43437</v>
       </c>
@@ -6546,36 +6587,36 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
-        <v>853</v>
+        <v>688</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="L86" s="1">
+        <v>5</v>
+      </c>
+      <c r="M86" s="1">
         <v>6</v>
       </c>
-      <c r="M86" s="1">
+      <c r="N86" s="1">
         <v>5</v>
       </c>
-      <c r="N86" s="1">
-        <v>3</v>
-      </c>
       <c r="O86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
         <v>43437</v>
       </c>
@@ -6584,33 +6625,33 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>789</v>
+        <v>682</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
-        <v>853</v>
+        <v>688</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="L87" s="1">
         <v>6</v>
       </c>
       <c r="M87" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N87" s="1">
+        <v>3</v>
+      </c>
+      <c r="O87" s="1">
         <v>5</v>
-      </c>
-      <c r="O87" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.15">
@@ -6624,34 +6665,34 @@
       <c r="E88" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>690</v>
+      <c r="F88" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="s">
-        <v>691</v>
+        <v>842</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="L88" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M88" s="1">
         <v>6</v>
       </c>
       <c r="N88" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O88" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
         <v>43437</v>
       </c>
@@ -6662,34 +6703,24 @@
       <c r="E89" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>690</v>
+      <c r="F89" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>793</v>
+        <v>688</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="L89" s="1">
-        <v>6</v>
-      </c>
-      <c r="M89" s="1">
-        <v>5</v>
-      </c>
-      <c r="N89" s="1">
-        <v>3</v>
-      </c>
-      <c r="O89" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
+        <v>688</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
         <v>43437</v>
       </c>
@@ -6704,30 +6735,30 @@
         <v>16</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1" t="s">
-        <v>853</v>
+        <v>688</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="L90" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M90" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N90" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O90" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
         <v>43437</v>
       </c>
@@ -6735,19 +6766,19 @@
         <v>43441</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>691</v>
+      <c r="E91" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>784</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1" t="s">
-        <v>691</v>
+        <v>784</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -6755,65 +6786,55 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
-        <v>43437</v>
+        <v>43444</v>
       </c>
       <c r="C92" s="4">
-        <v>43441</v>
+        <v>43448</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>793</v>
+      <c r="E92" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>716</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="L92" s="1">
-        <v>5</v>
-      </c>
-      <c r="M92" s="1">
-        <v>3</v>
-      </c>
-      <c r="N92" s="1">
-        <v>3</v>
-      </c>
-      <c r="O92" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
+        <v>716</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
-        <v>43437</v>
+        <v>43444</v>
       </c>
       <c r="C93" s="4">
-        <v>43441</v>
+        <v>43448</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="5" t="s">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>18</v>
+        <v>796</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>791</v>
+        <v>716</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="s">
-        <v>791</v>
+        <v>716</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -6821,7 +6842,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="4">
         <v>43444</v>
       </c>
@@ -6830,18 +6851,18 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="5" t="s">
-        <v>798</v>
+        <v>847</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -6849,7 +6870,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B95" s="4">
         <v>43444</v>
       </c>
@@ -6858,18 +6879,18 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="5" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -6877,7 +6898,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B96" s="4">
         <v>43444</v>
       </c>
@@ -6886,18 +6907,18 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="5" t="s">
-        <v>800</v>
+        <v>848</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -6905,7 +6926,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B97" s="4">
         <v>43444</v>
       </c>
@@ -6914,18 +6935,18 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -6933,7 +6954,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B98" s="4">
         <v>43444</v>
       </c>
@@ -6942,18 +6963,18 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="5" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -6961,7 +6982,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B99" s="4">
         <v>43444</v>
       </c>
@@ -6970,18 +6991,18 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="5" t="s">
-        <v>803</v>
+        <v>849</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -6989,7 +7010,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="4">
         <v>43444</v>
       </c>
@@ -6998,18 +7019,18 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="5" t="s">
-        <v>804</v>
+        <v>851</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>809</v>
+        <v>687</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>720</v>
+        <v>852</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1" t="s">
-        <v>720</v>
+      <c r="J100" s="5" t="s">
+        <v>852</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -7019,34 +7040,40 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B101" s="4">
-        <v>43444</v>
+        <v>43389</v>
       </c>
       <c r="C101" s="4">
-        <v>43448</v>
+        <v>43389</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>810</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="F101" s="1"/>
       <c r="G101" s="5" t="s">
-        <v>720</v>
+        <v>854</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="K101" s="1"/>
+      <c r="J101" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>855</v>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O101"/>
+  <autoFilter ref="B1:O101">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7062,9 +7089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7105,7 +7132,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -7119,7 +7146,7 @@
         <v>43262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -7154,7 +7181,7 @@
         <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>47</v>
@@ -7185,10 +7212,10 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
@@ -7205,7 +7232,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -7239,7 +7266,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>59</v>
@@ -7256,7 +7283,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>59</v>
@@ -7273,7 +7300,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>47</v>
@@ -7287,13 +7314,13 @@
         <v>43409</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7375,7 +7402,7 @@
         <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
@@ -7392,7 +7419,7 @@
         <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>59</v>
@@ -7409,7 +7436,7 @@
         <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>37</v>
@@ -7426,7 +7453,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>50</v>
@@ -7443,7 +7470,7 @@
         <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>37</v>
@@ -7475,7 +7502,7 @@
         <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>59</v>
@@ -7492,7 +7519,7 @@
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>50</v>
@@ -7526,7 +7553,7 @@
         <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>47</v>
@@ -7543,7 +7570,7 @@
         <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>37</v>
@@ -7560,7 +7587,7 @@
         <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>47</v>
@@ -7577,7 +7604,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>59</v>
@@ -7611,7 +7638,7 @@
         <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>50</v>
@@ -7645,7 +7672,7 @@
         <v>74</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>56</v>
@@ -7659,7 +7686,7 @@
         <v>43312</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -7692,7 +7719,7 @@
         <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>50</v>
@@ -7709,7 +7736,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>59</v>
@@ -7743,7 +7770,7 @@
         <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>59</v>
@@ -7792,7 +7819,7 @@
         <v>98</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>37</v>
@@ -7809,7 +7836,7 @@
         <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>47</v>
@@ -7826,7 +7853,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>59</v>
@@ -7860,7 +7887,7 @@
         <v>103</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>59</v>
@@ -7877,7 +7904,7 @@
         <v>67</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>47</v>
@@ -7928,7 +7955,7 @@
         <v>93</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>50</v>
@@ -7942,7 +7969,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
@@ -7977,7 +8004,7 @@
         <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>47</v>
@@ -7994,7 +8021,7 @@
         <v>90</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>47</v>
@@ -8011,7 +8038,7 @@
         <v>81</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>47</v>
@@ -8028,7 +8055,7 @@
         <v>75</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>47</v>
@@ -8045,7 +8072,7 @@
         <v>96</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>59</v>
@@ -8062,7 +8089,7 @@
         <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
@@ -8130,7 +8157,7 @@
         <v>105</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>50</v>
@@ -8147,7 +8174,7 @@
         <v>94</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>59</v>
@@ -8164,7 +8191,7 @@
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>59</v>
@@ -8181,7 +8208,7 @@
         <v>72</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>50</v>
@@ -8198,10 +8225,10 @@
         <v>120</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -8560,7 +8587,7 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
